--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/Negative FCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D6AFF6-30DA-1B4E-A35E-C9E29F8DA224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FFE254-A5BC-A34C-B913-4410BE751257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -590,17 +590,24 @@
   </si>
   <si>
     <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -937,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -978,19 +985,10 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,18 +1003,6 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,12 +1045,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1082,6 +1062,40 @@
     <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2270,13 +2284,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>57.1</v>
-    <v>20.05</v>
-    <v>2.3719999999999999</v>
-    <v>-0.41</v>
-    <v>-1.2857E-2</v>
-    <v>0.12</v>
-    <v>3.8119999999999999E-3</v>
+    <v>54.18</v>
+    <v>25.451000000000001</v>
+    <v>2.371</v>
+    <v>-0.8</v>
+    <v>-2.7220000000000001E-2</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2284,24 +2296,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>32.21</v>
+    <v>29.84</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45022.999620543749</v>
+    <v>45071.994079409378</v>
     <v>0</v>
-    <v>31.16</v>
-    <v>5157384140</v>
+    <v>28.44</v>
+    <v>4683985470</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>31.72</v>
-    <v>31.89</v>
-    <v>31.48</v>
-    <v>31.6</v>
-    <v>163830500</v>
+    <v>29.58</v>
+    <v>29.39</v>
+    <v>28.59</v>
+    <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>847799</v>
-    <v>939470</v>
+    <v>659329</v>
+    <v>1198082</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2333,8 +2344,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2354,7 +2363,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2371,7 +2379,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2382,16 +2390,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2455,19 +2460,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2511,9 +2510,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2521,9 +2517,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2896,28 +2889,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2938,26 +2931,26 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27">
         <v>441</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27">
         <v>538</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27">
         <v>671</v>
       </c>
       <c r="O3" t="s">
@@ -3101,10 +3094,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,19 +3123,19 @@
       <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="23">
         <v>2023</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="23">
         <v>2024</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="23">
         <v>2025</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="23">
         <v>2026</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3179,22 +3172,22 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <v>370</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="27">
         <v>441</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>538</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>671</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3220,20 +3213,20 @@
       <c r="E4" s="1">
         <v>739012000</v>
       </c>
-      <c r="F4" s="25">
-        <v>985100000</v>
-      </c>
-      <c r="G4" s="25">
-        <v>1283000000</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1593000000</v>
-      </c>
-      <c r="I4" s="25">
-        <v>1869000000</v>
-      </c>
-      <c r="J4" s="25">
-        <v>2262000000</v>
+      <c r="F4" s="24">
+        <v>974300000</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1242000000</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1529000000</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1817000000</v>
+      </c>
+      <c r="J4" s="24">
+        <v>2139000000</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>107</v>
@@ -3267,23 +3260,23 @@
       </c>
       <c r="F5" s="16">
         <f t="shared" ref="F5:J5" si="0">(F4/E4)-1</f>
-        <v>0.33299594593863158</v>
+        <v>0.31838183953711163</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>0.3024058471221196</v>
+        <v>0.27476136713537924</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>0.24162120031176926</v>
+        <v>0.23107890499194839</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>0.17325800376647837</v>
+        <v>0.18835840418574223</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.21027287319422161</v>
+        <v>0.17721518987341778</v>
       </c>
       <c r="K5" s="17">
         <f>(E5+D5+C5)/3</f>
@@ -3564,7 +3557,7 @@
         <f>E23/(E73+E57+E62)</f>
         <v>-2.9770011841899809E-3</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="66">
         <f>E68/E73</f>
         <v>3.7082261802711369</v>
       </c>
@@ -3631,21 +3624,21 @@
       <c r="E17" s="1">
         <v>741624000</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <f>(E36+D36+C36)/3</f>
         <v>3.652450823189142E-2</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="63">
         <f>M102/E4</f>
-        <v>6.9787556088399105</v>
-      </c>
-      <c r="M17" s="27">
+        <v>6.3381724112734297</v>
+      </c>
+      <c r="M17" s="63">
         <f>M102/E29</f>
-        <v>-1085.0797685672208</v>
-      </c>
-      <c r="N17" s="28">
+        <v>-985.47979591836736</v>
+      </c>
+      <c r="N17" s="64">
         <f>M102/E107</f>
-        <v>-40.29300796112409</v>
+        <v>-36.59449416783206</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3684,6 +3677,12 @@
       <c r="K19" s="19" t="s">
         <v>122</v>
       </c>
+      <c r="L19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -3701,9 +3700,32 @@
       <c r="E20" s="10">
         <v>60592000</v>
       </c>
-      <c r="K20" s="29">
+      <c r="F20" s="62">
+        <v>127700000</v>
+      </c>
+      <c r="G20" s="62">
+        <v>182800000</v>
+      </c>
+      <c r="H20" s="62">
+        <v>226000000</v>
+      </c>
+      <c r="I20" s="62">
+        <v>284500000</v>
+      </c>
+      <c r="J20" s="62">
+        <v>348900000</v>
+      </c>
+      <c r="K20" s="26">
         <f>E41-E57-E62</f>
         <v>-605239000</v>
+      </c>
+      <c r="L20" s="63">
+        <f>M102/F4</f>
+        <v>4.8075392281638099</v>
+      </c>
+      <c r="M20" s="65">
+        <f>G117/F32</f>
+        <v>73.307692307692307</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3723,6 +3745,26 @@
         <f>(E20/D20)-1</f>
         <v>-1.4708076271581532</v>
       </c>
+      <c r="F21" s="16">
+        <f t="shared" ref="F21:J21" si="3">(F20/E20)-1</f>
+        <v>1.1075389490361762</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="3"/>
+        <v>0.43148003132341417</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23632385120350108</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="3"/>
+        <v>0.25884955752212391</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22636203866432347</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3740,6 +3782,26 @@
       <c r="E22" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="F22" s="69">
+        <f>F20/F4</f>
+        <v>0.13106845940675357</v>
+      </c>
+      <c r="G22" s="69">
+        <f t="shared" ref="G22:J22" si="4">G20/G4</f>
+        <v>0.14718196457326893</v>
+      </c>
+      <c r="H22" s="69">
+        <f t="shared" si="4"/>
+        <v>0.14780902550686723</v>
+      </c>
+      <c r="I22" s="69">
+        <f t="shared" si="4"/>
+        <v>0.1565767749036874</v>
+      </c>
+      <c r="J22" s="69">
+        <f t="shared" si="4"/>
+        <v>0.16311360448807855</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3843,7 +3905,7 @@
         <v>2599000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -3859,8 +3921,23 @@
       <c r="E29" s="11">
         <v>-4753000</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="67">
+        <v>22780000</v>
+      </c>
+      <c r="G29" s="67">
+        <v>78490000</v>
+      </c>
+      <c r="H29" s="67">
+        <v>70495000</v>
+      </c>
+      <c r="I29" s="67">
+        <v>107000000</v>
+      </c>
+      <c r="J29" s="67">
+        <v>149100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>102</v>
       </c>
@@ -3877,6 +3954,26 @@
         <f>(E29/D29)-1</f>
         <v>-0.96075079687525811</v>
       </c>
+      <c r="F30" s="16">
+        <f t="shared" ref="F30:J30" si="5">(F29/E29)-1</f>
+        <v>-5.7927624658110668</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="5"/>
+        <v>2.4455662862159788</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.10186010956809788</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="5"/>
+        <v>0.51783814454925881</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="5"/>
+        <v>0.3934579439252337</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3894,6 +3991,26 @@
       <c r="E31" s="2">
         <v>-6.4000000000000003E-3</v>
       </c>
+      <c r="F31" s="69">
+        <f>F29/F4</f>
+        <v>2.3380888843272093E-2</v>
+      </c>
+      <c r="G31" s="69">
+        <f t="shared" ref="G31:J31" si="6">G29/G4</f>
+        <v>6.3196457326892108E-2</v>
+      </c>
+      <c r="H31" s="69">
+        <f t="shared" si="6"/>
+        <v>4.6105297580117721E-2</v>
+      </c>
+      <c r="I31" s="69">
+        <f t="shared" si="6"/>
+        <v>5.8888277380297192E-2</v>
+      </c>
+      <c r="J31" s="69">
+        <f t="shared" si="6"/>
+        <v>6.9705469845722304E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3911,6 +4028,21 @@
       <c r="E32" s="12">
         <v>-0.09</v>
       </c>
+      <c r="F32" s="68">
+        <v>0.39</v>
+      </c>
+      <c r="G32" s="68">
+        <v>1.35</v>
+      </c>
+      <c r="H32" s="68">
+        <v>1.21</v>
+      </c>
+      <c r="I32" s="68">
+        <v>1.84</v>
+      </c>
+      <c r="J32" s="68">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3968,16 +4100,16 @@
         <v>103</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <f>(C35-B35)/B35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="23">
-        <f t="shared" ref="D36:E36" si="3">(D35-C35)/C35</f>
+      <c r="D36" s="22">
+        <f t="shared" ref="D36:E36" si="7">(D35-C35)/C35</f>
         <v>0</v>
       </c>
-      <c r="E36" s="23">
-        <f t="shared" si="3"/>
+      <c r="E36" s="22">
+        <f t="shared" si="7"/>
         <v>0.10957352469567426</v>
       </c>
     </row>
@@ -4734,19 +4866,19 @@
         <v>104</v>
       </c>
       <c r="B81" s="15">
-        <f t="shared" ref="B81:E81" si="4">B80/B4</f>
+        <f t="shared" ref="B81:E81" si="8">B80/B4</f>
         <v>2.8351120955832997E-2</v>
       </c>
       <c r="C81" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10716434594838935</v>
       </c>
       <c r="D81" s="15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E81" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6368502811862321E-2</v>
       </c>
     </row>
@@ -4800,10 +4932,10 @@
       <c r="E84" s="1">
         <v>-15817000</v>
       </c>
-      <c r="L84" s="35" t="s">
+      <c r="L84" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="M84" s="36"/>
+      <c r="M84" s="73"/>
     </row>
     <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4821,10 +4953,10 @@
       <c r="E85" s="1">
         <v>1606000</v>
       </c>
-      <c r="L85" s="37" t="s">
+      <c r="L85" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M85" s="38"/>
+      <c r="M85" s="75"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4842,10 +4974,10 @@
       <c r="E86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L86" s="39" t="s">
+      <c r="L86" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="M86" s="40">
+      <c r="M86" s="33">
         <f>E18</f>
         <v>18018000</v>
       </c>
@@ -4866,10 +4998,10 @@
       <c r="E87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L87" s="39" t="s">
+      <c r="L87" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="M87" s="40">
+      <c r="M87" s="33">
         <f>E57</f>
         <v>130762000</v>
       </c>
@@ -4890,10 +5022,10 @@
       <c r="E88" s="10">
         <v>59883000</v>
       </c>
-      <c r="L88" s="39" t="s">
+      <c r="L88" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="M88" s="40">
+      <c r="M88" s="33">
         <f>E62</f>
         <v>494655000</v>
       </c>
@@ -4914,10 +5046,10 @@
       <c r="E89" s="1">
         <v>-187880000</v>
       </c>
-      <c r="L89" s="41" t="s">
+      <c r="L89" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="M89" s="42">
+      <c r="M89" s="35">
         <f>M86/(M87+M88)</f>
         <v>2.8809578249392006E-2</v>
       </c>
@@ -4927,25 +5059,25 @@
         <v>105</v>
       </c>
       <c r="B90" s="15">
-        <f t="shared" ref="B90:E90" si="5">(-1*B89)/B4</f>
+        <f t="shared" ref="B90:E90" si="9">(-1*B89)/B4</f>
         <v>0.1655633306484092</v>
       </c>
       <c r="C90" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.12392605058443006</v>
       </c>
       <c r="D90" s="15" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E90" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.25423132506644008</v>
       </c>
-      <c r="L90" s="39" t="s">
+      <c r="L90" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M90" s="40">
+      <c r="M90" s="33">
         <f>E28</f>
         <v>2599000</v>
       </c>
@@ -4966,10 +5098,10 @@
       <c r="E91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L91" s="39" t="s">
+      <c r="L91" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="40">
+      <c r="M91" s="33">
         <f>E26</f>
         <v>-16654000</v>
       </c>
@@ -4990,10 +5122,10 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L92" s="41" t="s">
+      <c r="L92" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M92" s="42">
+      <c r="M92" s="35">
         <f>M90/M91</f>
         <v>-0.15605860453944997</v>
       </c>
@@ -5014,10 +5146,10 @@
       <c r="E93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L93" s="43" t="s">
+      <c r="L93" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="M93" s="44">
+      <c r="M93" s="37">
         <f>M89*(1-M92)</f>
         <v>3.330556082836221E-2</v>
       </c>
@@ -5038,10 +5170,10 @@
       <c r="E94" s="1">
         <v>-4692000</v>
       </c>
-      <c r="L94" s="37" t="s">
+      <c r="L94" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="M94" s="38"/>
+      <c r="M94" s="75"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -5059,10 +5191,10 @@
       <c r="E95" s="10">
         <v>-192572000</v>
       </c>
-      <c r="L95" s="39" t="s">
+      <c r="L95" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="M95" s="45">
+      <c r="M95" s="38">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5082,12 +5214,12 @@
       <c r="E96" s="1">
         <v>-10569000</v>
       </c>
-      <c r="L96" s="39" t="s">
+      <c r="L96" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="M96" s="46" cm="1">
+      <c r="M96" s="39" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.3719999999999999</v>
+        <v>2.371</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5106,10 +5238,10 @@
       <c r="E97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L97" s="39" t="s">
+      <c r="L97" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="45">
+      <c r="M97" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5129,12 +5261,12 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="43" t="s">
+      <c r="L98" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="M98" s="44">
+      <c r="M98" s="37">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14306460000000001</v>
+        <v>0.14302155</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5153,10 +5285,10 @@
       <c r="E99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L99" s="37" t="s">
+      <c r="L99" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="M99" s="38"/>
+      <c r="M99" s="75"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -5174,10 +5306,10 @@
       <c r="E100" s="1">
         <v>144930000</v>
       </c>
-      <c r="L100" s="39" t="s">
+      <c r="L100" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="M100" s="40">
+      <c r="M100" s="33">
         <f>M87+M88</f>
         <v>625417000</v>
       </c>
@@ -5198,12 +5330,12 @@
       <c r="E101" s="10">
         <v>134361000</v>
       </c>
-      <c r="L101" s="41" t="s">
+      <c r="L101" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="M101" s="42">
+      <c r="M101" s="35">
         <f>M100/M104</f>
-        <v>0.10815122029252419</v>
+        <v>0.11779423457419683</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5222,12 +5354,12 @@
       <c r="E102" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L102" s="39" t="s">
+      <c r="L102" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="M102" s="47" cm="1">
+      <c r="M102" s="40" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>5157384140</v>
+        <v>4683985470</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5246,12 +5378,12 @@
       <c r="E103" s="10">
         <v>1672000</v>
       </c>
-      <c r="L103" s="41" t="s">
+      <c r="L103" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="M103" s="42">
+      <c r="M103" s="35">
         <f>M102/M104</f>
-        <v>0.89184877970747578</v>
+        <v>0.8822057654258032</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5270,12 +5402,12 @@
       <c r="E104" s="1">
         <v>18506000</v>
       </c>
-      <c r="L104" s="43" t="s">
+      <c r="L104" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="M104" s="48">
+      <c r="M104" s="41">
         <f>M100+M102</f>
-        <v>5782801140</v>
+        <v>5309402470</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5294,10 +5426,10 @@
       <c r="E105" s="11">
         <v>20178000</v>
       </c>
-      <c r="L105" s="37" t="s">
+      <c r="L105" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="M105" s="38"/>
+      <c r="M105" s="75"/>
     </row>
     <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -5316,18 +5448,33 @@
         <f>(E107/D107)-1</f>
         <v>-2.5924976671850697</v>
       </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
+      <c r="F106" s="44">
+        <f>E107*(1+$M$107)</f>
+        <v>-158455056.18910071</v>
+      </c>
+      <c r="G106" s="44">
+        <f t="shared" ref="G106" si="10">F106*(1+$M$107)</f>
+        <v>-196160885.26989746</v>
+      </c>
+      <c r="H106" s="44">
+        <f t="shared" ref="H106" si="11">G106*(1+$M$107)</f>
+        <v>-242839161.05491021</v>
+      </c>
+      <c r="I106" s="44">
+        <f t="shared" ref="I106" si="12">H106*(1+$M$107)</f>
+        <v>-300624959.25584096</v>
+      </c>
+      <c r="J106" s="44">
+        <f t="shared" ref="J106" si="13">I106*(1+$M$107)</f>
+        <v>-372161416.36702728</v>
+      </c>
       <c r="K106" s="15"/>
-      <c r="L106" s="49" t="s">
+      <c r="L106" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="M106" s="50">
+      <c r="M106" s="43">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13119402597545241</v>
+        <v>0.13009763903497606</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5346,35 +5493,35 @@
       <c r="E107" s="1">
         <v>-127997000</v>
       </c>
-      <c r="F107" s="51">
-        <f>E107*(1+$M$107)</f>
-        <v>-160266422.74820825</v>
-      </c>
-      <c r="G107" s="51">
-        <f t="shared" ref="G107:J107" si="6">F107*(1+$M$107)</f>
-        <v>-200671314.64415106</v>
-      </c>
-      <c r="H107" s="51">
-        <f t="shared" si="6"/>
-        <v>-251262715.11205909</v>
-      </c>
-      <c r="I107" s="51">
-        <f t="shared" si="6"/>
-        <v>-314608752.71304697</v>
-      </c>
-      <c r="J107" s="51">
-        <f t="shared" si="6"/>
-        <v>-393925008.88767469</v>
-      </c>
-      <c r="K107" s="52" t="s">
+      <c r="F107" s="44">
+        <f>E108*(1+$M$107)</f>
+        <v>105226526.99730119</v>
+      </c>
+      <c r="G107" s="44">
+        <f t="shared" ref="G107:J107" si="14">F107*(1+$M$107)</f>
+        <v>130266140.98722067</v>
+      </c>
+      <c r="H107" s="44">
+        <f t="shared" si="14"/>
+        <v>161264160.01677671</v>
+      </c>
+      <c r="I107" s="44">
+        <f t="shared" si="14"/>
+        <v>199638441.03179359</v>
+      </c>
+      <c r="J107" s="44">
+        <f t="shared" si="14"/>
+        <v>247144232.99919</v>
+      </c>
+      <c r="K107" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="L107" s="53" t="s">
+      <c r="L107" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="M107" s="54">
+      <c r="M107" s="47">
         <f>(SUM(F5:J5)/5)</f>
-        <v>0.25211077406664406</v>
+        <v>0.23795914114471986</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5382,152 +5529,154 @@
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="55">
+      <c r="E108" s="24">
+        <v>85000000</v>
+      </c>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="48">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>-3802220797.2716079</v>
-      </c>
-      <c r="K108" s="56" t="s">
+        <v>2410357084.6140976</v>
+      </c>
+      <c r="K108" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="L108" s="57" t="s">
+      <c r="L108" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="M108" s="58">
+      <c r="M108" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="55">
-        <f t="shared" ref="F109:H109" si="7">F108+F107</f>
-        <v>-160266422.74820825</v>
-      </c>
-      <c r="G109" s="55">
-        <f t="shared" si="7"/>
-        <v>-200671314.64415106</v>
-      </c>
-      <c r="H109" s="55">
-        <f t="shared" si="7"/>
-        <v>-251262715.11205909</v>
-      </c>
-      <c r="I109" s="55">
+      <c r="F109" s="48">
+        <f t="shared" ref="F109:H109" si="15">F108+F107</f>
+        <v>105226526.99730119</v>
+      </c>
+      <c r="G109" s="48">
+        <f t="shared" si="15"/>
+        <v>130266140.98722067</v>
+      </c>
+      <c r="H109" s="48">
+        <f t="shared" si="15"/>
+        <v>161264160.01677671</v>
+      </c>
+      <c r="I109" s="48">
         <f>I108+I107</f>
-        <v>-314608752.71304697</v>
-      </c>
-      <c r="J109" s="55">
+        <v>199638441.03179359</v>
+      </c>
+      <c r="J109" s="48">
         <f>J108+J107</f>
-        <v>-4196145806.1592827</v>
-      </c>
-      <c r="K109" s="56" t="s">
+        <v>2657501317.6132874</v>
+      </c>
+      <c r="K109" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="L109" s="59" t="s">
+      <c r="L109" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="M109" s="60">
+      <c r="M109" s="53">
         <f>M106</f>
-        <v>0.13119402597545241</v>
+        <v>0.13009763903497606</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F110" s="61" t="s">
+      <c r="F110" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="G110" s="62"/>
+      <c r="G110" s="71"/>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="63" t="s">
+      <c r="F111" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="G111" s="47">
+      <c r="G111" s="40">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>-2929736483.0403881</v>
+        <v>1871009765.4382093</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="63" t="s">
+      <c r="F112" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G112" s="47">
+      <c r="G112" s="40">
         <f>E41</f>
         <v>20178000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="63" t="s">
+      <c r="F113" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="47">
+      <c r="G113" s="40">
         <f>M100</f>
         <v>625417000</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="63" t="s">
+      <c r="F114" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="G114" s="47">
+      <c r="G114" s="40">
         <f>G111+G112-G113</f>
-        <v>-3534975483.0403881</v>
+        <v>1265770765.4382093</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="63" t="s">
+      <c r="F115" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G115" s="64">
+      <c r="G115" s="55">
         <f>E35*(1+(5*K17))</f>
         <v>61343813.832482196</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="65" t="s">
+      <c r="F116" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="G116" s="66">
+      <c r="G116" s="57">
         <f>G114/G115</f>
-        <v>-57.625622898075846</v>
+        <v>20.634040930268512</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="63" t="s">
+      <c r="F117" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G117" s="67" cm="1">
+      <c r="G117" s="58" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>31.48</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="68" t="s">
+      <c r="F118" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G118" s="69">
+      <c r="G118" s="60">
         <f>G116/G117-1</f>
-        <v>-2.8305471060379874</v>
+        <v>-0.27827768694408839</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F119" s="68" t="s">
+      <c r="F119" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="G119" s="70" t="str">
+      <c r="G119" s="61" t="str">
         <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F110:G110"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="L105:M105"/>
-    <mergeCell ref="F110:G110"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/BROS" display="ROIC.AI | BROS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FFE254-A5BC-A34C-B913-4410BE751257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B13C91-BB71-C64E-A72C-87EE4D2F4F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1097,6 +1097,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,9 +2287,11 @@
     <v>Powered by Refinitiv</v>
     <v>54.18</v>
     <v>25.451000000000001</v>
-    <v>2.371</v>
-    <v>-0.8</v>
-    <v>-2.7220000000000001E-2</v>
+    <v>2.387</v>
+    <v>-0.56999999999999995</v>
+    <v>-1.9937E-2</v>
+    <v>0.23</v>
+    <v>8.208E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2296,23 +2299,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>29.84</v>
+    <v>28.594999999999999</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45071.994079409378</v>
+    <v>45072.998209027341</v>
     <v>0</v>
-    <v>28.44</v>
-    <v>4683985470</v>
+    <v>27.56</v>
+    <v>4590601000</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>29.58</v>
-    <v>29.39</v>
+    <v>28.41</v>
     <v>28.59</v>
+    <v>28.02</v>
+    <v>28.25</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>659329</v>
-    <v>1198082</v>
+    <v>836288</v>
+    <v>1192433</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2344,6 +2348,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2363,6 +2369,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2379,7 +2386,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2390,13 +2397,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2460,13 +2470,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2510,6 +2526,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2517,6 +2536,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3094,10 +3116,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3630,15 +3652,15 @@
       </c>
       <c r="L17" s="63">
         <f>M102/E4</f>
-        <v>6.3381724112734297</v>
+        <v>6.211808468604028</v>
       </c>
       <c r="M17" s="63">
         <f>M102/E29</f>
-        <v>-985.47979591836736</v>
+        <v>-965.83231643172735</v>
       </c>
       <c r="N17" s="64">
         <f>M102/E107</f>
-        <v>-36.59449416783206</v>
+        <v>-35.86491089634913</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3721,11 +3743,11 @@
       </c>
       <c r="L20" s="63">
         <f>M102/F4</f>
-        <v>4.8075392281638099</v>
+        <v>4.7116914707995488</v>
       </c>
       <c r="M20" s="65">
         <f>G117/F32</f>
-        <v>73.307692307692307</v>
+        <v>71.84615384615384</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,7 +5241,7 @@
       </c>
       <c r="M96" s="39" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.371</v>
+        <v>2.387</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5266,7 +5288,7 @@
       </c>
       <c r="M98" s="37">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14302155</v>
+        <v>0.14371035000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5335,7 +5357,7 @@
       </c>
       <c r="M101" s="35">
         <f>M100/M104</f>
-        <v>0.11779423457419683</v>
+        <v>0.11990315217470492</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5359,7 +5381,7 @@
       </c>
       <c r="M102" s="40" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4683985470</v>
+        <v>4590601000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5383,7 +5405,7 @@
       </c>
       <c r="M103" s="35">
         <f>M102/M104</f>
-        <v>0.8822057654258032</v>
+        <v>0.88009684782529507</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5407,7 +5429,7 @@
       </c>
       <c r="M104" s="41">
         <f>M100+M102</f>
-        <v>5309402470</v>
+        <v>5216018000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5448,25 +5470,20 @@
         <f>(E107/D107)-1</f>
         <v>-2.5924976671850697</v>
       </c>
-      <c r="F106" s="44">
-        <f>E107*(1+$M$107)</f>
-        <v>-158455056.18910071</v>
-      </c>
-      <c r="G106" s="44">
-        <f t="shared" ref="G106" si="10">F106*(1+$M$107)</f>
-        <v>-196160885.26989746</v>
-      </c>
-      <c r="H106" s="44">
-        <f t="shared" ref="H106" si="11">G106*(1+$M$107)</f>
-        <v>-242839161.05491021</v>
-      </c>
-      <c r="I106" s="44">
-        <f t="shared" ref="I106" si="12">H106*(1+$M$107)</f>
-        <v>-300624959.25584096</v>
-      </c>
-      <c r="J106" s="44">
-        <f t="shared" ref="J106" si="13">I106*(1+$M$107)</f>
-        <v>-372161416.36702728</v>
+      <c r="F106" s="76">
+        <v>-105000000</v>
+      </c>
+      <c r="G106" s="76">
+        <v>-66551000</v>
+      </c>
+      <c r="H106" s="76">
+        <v>-54476000</v>
+      </c>
+      <c r="I106" s="76">
+        <v>-1000000</v>
+      </c>
+      <c r="J106" s="76">
+        <v>10660000</v>
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="42" t="s">
@@ -5474,7 +5491,7 @@
       </c>
       <c r="M106" s="43">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13009763903497606</v>
+        <v>0.13047246776313692</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5498,19 +5515,19 @@
         <v>105226526.99730119</v>
       </c>
       <c r="G107" s="44">
-        <f t="shared" ref="G107:J107" si="14">F107*(1+$M$107)</f>
+        <f t="shared" ref="G107:J107" si="10">F107*(1+$M$107)</f>
         <v>130266140.98722067</v>
       </c>
       <c r="H107" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>161264160.01677671</v>
       </c>
       <c r="I107" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>199638441.03179359</v>
       </c>
       <c r="J107" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>247144232.99919</v>
       </c>
       <c r="K107" s="45" t="s">
@@ -5529,7 +5546,7 @@
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
-      <c r="E108" s="24">
+      <c r="E108" s="76">
         <v>85000000</v>
       </c>
       <c r="F108" s="45"/>
@@ -5538,7 +5555,7 @@
       <c r="I108" s="45"/>
       <c r="J108" s="48">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2410357084.6140976</v>
+        <v>2401791142.2444892</v>
       </c>
       <c r="K108" s="49" t="s">
         <v>160</v>
@@ -5552,15 +5569,15 @@
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F109" s="48">
-        <f t="shared" ref="F109:H109" si="15">F108+F107</f>
+        <f t="shared" ref="F109:H109" si="11">F108+F107</f>
         <v>105226526.99730119</v>
       </c>
       <c r="G109" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>130266140.98722067</v>
       </c>
       <c r="H109" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>161264160.01677671</v>
       </c>
       <c r="I109" s="48">
@@ -5569,7 +5586,7 @@
       </c>
       <c r="J109" s="48">
         <f>J108+J107</f>
-        <v>2657501317.6132874</v>
+        <v>2648935375.243679</v>
       </c>
       <c r="K109" s="49" t="s">
         <v>155</v>
@@ -5579,7 +5596,7 @@
       </c>
       <c r="M109" s="53">
         <f>M106</f>
-        <v>0.13009763903497606</v>
+        <v>0.13047246776313692</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5594,7 +5611,7 @@
       </c>
       <c r="G111" s="40">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1871009765.4382093</v>
+        <v>1863609731.2205093</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5621,7 +5638,7 @@
       </c>
       <c r="G114" s="40">
         <f>G111+G112-G113</f>
-        <v>1265770765.4382093</v>
+        <v>1258370731.2205093</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5639,7 +5656,7 @@
       </c>
       <c r="G116" s="57">
         <f>G114/G115</f>
-        <v>20.634040930268512</v>
+        <v>20.513408811797561</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5648,7 +5665,7 @@
       </c>
       <c r="G117" s="58" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.59</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5657,7 +5674,7 @@
       </c>
       <c r="G118" s="60">
         <f>G116/G117-1</f>
-        <v>-0.27827768694408839</v>
+        <v>-0.26790118444691069</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B13C91-BB71-C64E-A72C-87EE4D2F4F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23EAD4-C8CE-B941-BE91-FADADB42D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23700" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="177">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -343,9 +346,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -547,9 +544,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -596,6 +590,21 @@
   </si>
   <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1040,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1079,6 +1087,8 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,7 +1107,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,11 +1358,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$107</c:f>
+              <c:f>Model!$A$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1393,7 +1402,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$107:$E$107</c:f>
+              <c:f>Model!$B$108:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2131,13 +2140,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2163,6 +2172,64 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.8390000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2287,11 +2354,11 @@
     <v>Powered by Refinitiv</v>
     <v>54.18</v>
     <v>25.451000000000001</v>
-    <v>2.387</v>
-    <v>-0.56999999999999995</v>
-    <v>-1.9937E-2</v>
-    <v>0.23</v>
-    <v>8.208E-3</v>
+    <v>2.3719999999999999</v>
+    <v>-0.86</v>
+    <v>-2.8917000000000002E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2299,24 +2366,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.594999999999999</v>
+    <v>29.63</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45072.998209027341</v>
+    <v>45091.975077267969</v>
     <v>0</v>
-    <v>27.56</v>
-    <v>4590601000</v>
+    <v>28.64</v>
+    <v>4731497040</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>28.41</v>
-    <v>28.59</v>
-    <v>28.02</v>
-    <v>28.25</v>
+    <v>29.57</v>
+    <v>29.74</v>
+    <v>28.88</v>
+    <v>28.88</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>836288</v>
-    <v>1192433</v>
+    <v>905249</v>
+    <v>1181229</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2912,54 +2979,54 @@
   <sheetData>
     <row r="1" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="O2" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27">
@@ -2976,7 +3043,7 @@
         <v>671</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="19" x14ac:dyDescent="0.25">
@@ -3010,7 +3077,7 @@
     </row>
     <row r="5" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="15">
@@ -3073,7 +3140,7 @@
     </row>
     <row r="7" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="15">
@@ -3116,10 +3183,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3166,25 +3233,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -3195,7 +3262,7 @@
     </row>
     <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="27">
         <v>370</v>
@@ -3251,21 +3318,21 @@
         <v>2139000000</v>
       </c>
       <c r="K4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="15">
@@ -3313,7 +3380,7 @@
         <v>-7.9705186503824805</v>
       </c>
       <c r="N5" s="17">
-        <f>(E106+D106+C106)/3</f>
+        <f>(E107+D107+C107)/3</f>
         <v>0.78508932899354045</v>
       </c>
       <c r="S5" s="16"/>
@@ -3369,16 +3436,16 @@
         <v>180916000</v>
       </c>
       <c r="K7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="N7" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3410,7 +3477,7 @@
         <v>-6.4000000000000003E-3</v>
       </c>
       <c r="N8" s="21">
-        <f>E107/E4</f>
+        <f>E108/E4</f>
         <v>-0.17320016454401282</v>
       </c>
     </row>
@@ -3433,7 +3500,7 @@
     </row>
     <row r="10" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="15">
         <f>B9/B4</f>
@@ -3454,16 +3521,16 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="K10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M10" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="N10" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3471,16 +3538,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="17">
         <f>E10</f>
@@ -3504,16 +3571,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3521,10 +3588,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1">
         <v>265035000</v>
@@ -3533,21 +3600,21 @@
         <v>183528000</v>
       </c>
       <c r="K13" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="15" t="e">
         <f>B13/B4</f>
@@ -3579,7 +3646,7 @@
         <f>E23/(E73+E57+E62)</f>
         <v>-2.9770011841899809E-3</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="65">
         <f>E68/E73</f>
         <v>3.7082261802711369</v>
       </c>
@@ -3595,10 +3662,10 @@
         <v>105087000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3618,16 +3685,16 @@
         <v>183528000</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L16" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3650,17 +3717,17 @@
         <f>(E36+D36+C36)/3</f>
         <v>3.652450823189142E-2</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="62">
         <f>M102/E4</f>
-        <v>6.211808468604028</v>
-      </c>
-      <c r="M17" s="63">
+        <v>6.4024630723181764</v>
+      </c>
+      <c r="M17" s="62">
         <f>M102/E29</f>
-        <v>-965.83231643172735</v>
-      </c>
-      <c r="N17" s="64">
-        <f>M102/E107</f>
-        <v>-35.86491089634913</v>
+        <v>-995.47591836734694</v>
+      </c>
+      <c r="N17" s="63">
+        <f>M102/E108</f>
+        <v>-36.965687008289258</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3691,19 +3758,19 @@
         <v>15537000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1">
         <v>44728000</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3722,37 +3789,37 @@
       <c r="E20" s="10">
         <v>60592000</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="61">
         <v>127700000</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="61">
         <v>182800000</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="61">
         <v>226000000</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="61">
         <v>284500000</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="61">
         <v>348900000</v>
       </c>
       <c r="K20" s="26">
         <f>E41-E57-E62</f>
         <v>-605239000</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="62">
         <f>M102/F4</f>
-        <v>4.7116914707995488</v>
-      </c>
-      <c r="M20" s="65">
+        <v>4.856304054192754</v>
+      </c>
+      <c r="M20" s="64">
         <f>G117/F32</f>
-        <v>71.84615384615384</v>
+        <v>74.051282051282044</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="15">
@@ -3804,23 +3871,23 @@
       <c r="E22" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="68">
         <f>F20/F4</f>
         <v>0.13106845940675357</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="68">
         <f t="shared" ref="G22:J22" si="4">G20/G4</f>
         <v>0.14718196457326893</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="68">
         <f t="shared" si="4"/>
         <v>0.14780902550686723</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="68">
         <f t="shared" si="4"/>
         <v>0.1565767749036874</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="68">
         <f t="shared" si="4"/>
         <v>0.16311360448807855</v>
       </c>
@@ -3943,25 +4010,25 @@
       <c r="E29" s="11">
         <v>-4753000</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="66">
         <v>22780000</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="66">
         <v>78490000</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="66">
         <v>70495000</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="66">
         <v>107000000</v>
       </c>
-      <c r="J29" s="67">
+      <c r="J29" s="66">
         <v>149100000</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="15">
@@ -4013,23 +4080,23 @@
       <c r="E31" s="2">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="68">
         <f>F29/F4</f>
         <v>2.3380888843272093E-2</v>
       </c>
-      <c r="G31" s="69">
+      <c r="G31" s="68">
         <f t="shared" ref="G31:J31" si="6">G29/G4</f>
         <v>6.3196457326892108E-2</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="68">
         <f t="shared" si="6"/>
         <v>4.6105297580117721E-2</v>
       </c>
-      <c r="I31" s="69">
+      <c r="I31" s="68">
         <f t="shared" si="6"/>
         <v>5.8888277380297192E-2</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J31" s="68">
         <f t="shared" si="6"/>
         <v>6.9705469845722304E-2</v>
       </c>
@@ -4050,19 +4117,19 @@
       <c r="E32" s="12">
         <v>-0.09</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="67">
         <v>0.39</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="67">
         <v>1.35</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="67">
         <v>1.21</v>
       </c>
-      <c r="I32" s="68">
+      <c r="I32" s="67">
         <v>1.84</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="67">
         <v>2.57</v>
       </c>
     </row>
@@ -4119,7 +4186,7 @@
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="22">
@@ -4140,16 +4207,16 @@
         <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4157,16 +4224,16 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4191,16 +4258,16 @@
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4361,16 +4428,16 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4378,10 +4445,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>159031000</v>
@@ -4429,16 +4496,16 @@
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4497,16 +4564,16 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4599,16 +4666,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4650,16 +4717,16 @@
         <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4684,16 +4751,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>2000</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4701,10 +4768,10 @@
         <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-14035000</v>
@@ -4718,16 +4785,16 @@
         <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4735,10 +4802,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1">
         <v>224219000</v>
@@ -4752,10 +4819,10 @@
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="10">
         <v>210186000</v>
@@ -4786,16 +4853,16 @@
         <v>28</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4803,16 +4870,16 @@
         <v>65</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4842,8 +4909,8 @@
       <c r="C78" s="1">
         <v>15537000</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>92</v>
+      <c r="D78" s="1">
+        <v>15537000</v>
       </c>
       <c r="E78" s="1">
         <v>44728000</v>
@@ -4854,13 +4921,13 @@
         <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1">
         <v>1078000</v>
@@ -4877,7 +4944,7 @@
         <v>35087000</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1">
         <v>41657000</v>
@@ -4885,7 +4952,7 @@
     </row>
     <row r="81" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="15">
         <f t="shared" ref="B81:E81" si="8">B80/B4</f>
@@ -4932,7 +4999,7 @@
         <v>-4218000</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-1322000</v>
@@ -4949,15 +5016,15 @@
         <v>-4587000</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>-15817000</v>
       </c>
-      <c r="L84" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="M84" s="73"/>
+      <c r="L84" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="M84" s="74"/>
     </row>
     <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4970,15 +5037,15 @@
         <v>-518000</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>1606000</v>
       </c>
-      <c r="L85" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="M85" s="75"/>
+      <c r="L85" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="M85" s="76"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4994,10 +5061,10 @@
         <v>12118000</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M86" s="33">
         <f>E18</f>
@@ -5018,10 +5085,10 @@
         <v>183614000</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L87" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M87" s="33">
         <f>E57</f>
@@ -5045,7 +5112,7 @@
         <v>59883000</v>
       </c>
       <c r="L88" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M88" s="33">
         <f>E62</f>
@@ -5062,14 +5129,14 @@
       <c r="C89" s="1">
         <v>-40575000</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>92</v>
+      <c r="D89" s="1">
+        <v>-121089000</v>
       </c>
       <c r="E89" s="1">
         <v>-187880000</v>
       </c>
       <c r="L89" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M89" s="35">
         <f>M86/(M87+M88)</f>
@@ -5078,7 +5145,7 @@
     </row>
     <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="15">
         <f t="shared" ref="B90:E90" si="9">(-1*B89)/B4</f>
@@ -5088,16 +5155,16 @@
         <f t="shared" si="9"/>
         <v>0.12392605058443006</v>
       </c>
-      <c r="D90" s="15" t="e">
+      <c r="D90" s="15">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>0.2432111610119789</v>
       </c>
       <c r="E90" s="15">
         <f t="shared" si="9"/>
         <v>0.25423132506644008</v>
       </c>
       <c r="L90" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M90" s="33">
         <f>E28</f>
@@ -5115,10 +5182,10 @@
         <v>-5094000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="32" t="s">
         <v>19</v>
@@ -5133,19 +5200,19 @@
         <v>76</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M92" s="35">
         <f>M90/M91</f>
@@ -5157,19 +5224,19 @@
         <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M93" s="37">
         <f>M89*(1-M92)</f>
@@ -5192,10 +5259,10 @@
       <c r="E94" s="1">
         <v>-4692000</v>
       </c>
-      <c r="L94" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="M94" s="75"/>
+      <c r="L94" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="M94" s="76"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -5214,10 +5281,11 @@
         <v>-192572000</v>
       </c>
       <c r="L95" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M95" s="38">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.8390000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5231,17 +5299,17 @@
         <v>-29423000</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>-10569000</v>
       </c>
       <c r="L96" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M96" s="39" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.387</v>
+        <v>2.3719999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5249,19 +5317,19 @@
         <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M97" s="38">
         <v>8.4000000000000005E-2</v>
@@ -5272,23 +5340,23 @@
         <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M98" s="37">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14371035000000001</v>
+        <v>0.14657692</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5296,21 +5364,21 @@
         <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L99" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="M99" s="75"/>
+        <v>91</v>
+      </c>
+      <c r="L99" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="M99" s="76"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -5329,7 +5397,7 @@
         <v>144930000</v>
       </c>
       <c r="L100" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M100" s="33">
         <f>M87+M88</f>
@@ -5353,11 +5421,11 @@
         <v>134361000</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M101" s="35">
         <f>M100/M104</f>
-        <v>0.11990315217470492</v>
+        <v>0.11674949333329232</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5365,23 +5433,23 @@
         <v>86</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L102" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M102" s="40" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4590601000</v>
+        <v>4731497040</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5401,11 +5469,11 @@
         <v>1672000</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M103" s="35">
         <f>M102/M104</f>
-        <v>0.88009684782529507</v>
+        <v>0.88325050666670768</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5425,14 +5493,14 @@
         <v>18506000</v>
       </c>
       <c r="L104" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M104" s="41">
         <f>M100+M102</f>
-        <v>5216018000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>5356914040</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
@@ -5448,93 +5516,99 @@
       <c r="E105" s="11">
         <v>20178000</v>
       </c>
-      <c r="L105" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="M105" s="75"/>
-    </row>
-    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="L105" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M105" s="76"/>
+    </row>
+    <row r="106" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
-        <v>-0.24731681847189191</v>
-      </c>
-      <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
-        <v>5.1950824726375826</v>
-      </c>
-      <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
-        <v>-2.5924976671850697</v>
-      </c>
-      <c r="F106" s="76">
-        <v>-105000000</v>
-      </c>
-      <c r="G106" s="76">
-        <v>-66551000</v>
-      </c>
-      <c r="H106" s="76">
-        <v>-54476000</v>
-      </c>
-      <c r="I106" s="76">
-        <v>-1000000</v>
-      </c>
-      <c r="J106" s="76">
-        <v>10660000</v>
-      </c>
-      <c r="K106" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" ref="B106:C106" si="10">(B23*(1-0.2))+B78+B89+B82</f>
+        <v>6000600</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="10"/>
+        <v>-19877400</v>
+      </c>
+      <c r="D106" s="1">
+        <f>(D23*(1-0.2))+D78+D89+D82</f>
+        <v>-178310600</v>
+      </c>
+      <c r="E106" s="1">
+        <f>(E23*(1-0.2))+E78+E89+E82</f>
+        <v>-153568600</v>
+      </c>
+      <c r="F106" s="44">
+        <f>E106*(1+$M$107)</f>
+        <v>-190111652.16279703</v>
+      </c>
+      <c r="G106" s="44">
+        <f t="shared" ref="G106:J106" si="11">F106*(1+$M$107)</f>
+        <v>-235350457.63305995</v>
+      </c>
+      <c r="H106" s="44">
+        <f t="shared" si="11"/>
+        <v>-291354250.39943969</v>
+      </c>
+      <c r="I106" s="44">
+        <f t="shared" si="11"/>
+        <v>-360684657.59335405</v>
+      </c>
+      <c r="J106" s="44">
+        <f t="shared" si="11"/>
+        <v>-446512868.93834597</v>
+      </c>
+      <c r="K106" s="45" t="s">
+        <v>172</v>
+      </c>
       <c r="L106" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M106" s="43">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13047246776313692</v>
+        <v>0.13335254620753792</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="1">
-        <v>17237000</v>
-      </c>
-      <c r="C107" s="1">
-        <v>12974000</v>
-      </c>
-      <c r="D107" s="1">
-        <v>80375000</v>
-      </c>
-      <c r="E107" s="1">
-        <v>-127997000</v>
-      </c>
-      <c r="F107" s="44">
-        <f>E108*(1+$M$107)</f>
-        <v>105226526.99730119</v>
-      </c>
-      <c r="G107" s="44">
-        <f t="shared" ref="G107:J107" si="10">F107*(1+$M$107)</f>
-        <v>130266140.98722067</v>
-      </c>
-      <c r="H107" s="44">
-        <f t="shared" si="10"/>
-        <v>161264160.01677671</v>
-      </c>
-      <c r="I107" s="44">
-        <f t="shared" si="10"/>
-        <v>199638441.03179359</v>
-      </c>
-      <c r="J107" s="44">
-        <f t="shared" si="10"/>
-        <v>247144232.99919</v>
+      <c r="A107" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="15">
+        <f>(C108/B108)-1</f>
+        <v>-0.24731681847189191</v>
+      </c>
+      <c r="D107" s="15">
+        <f>(D108/C108)-1</f>
+        <v>5.1950824726375826</v>
+      </c>
+      <c r="E107" s="15">
+        <f>(E108/D108)-1</f>
+        <v>-2.5924976671850697</v>
+      </c>
+      <c r="F107" s="69">
+        <v>-105200000</v>
+      </c>
+      <c r="G107" s="69">
+        <v>-66125000</v>
+      </c>
+      <c r="H107" s="69">
+        <v>5000000</v>
+      </c>
+      <c r="I107" s="69">
+        <v>150000000</v>
+      </c>
+      <c r="J107" s="69">
+        <v>250000000</v>
       </c>
       <c r="K107" s="45" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L107" s="46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M107" s="47">
         <f>(SUM(F5:J5)/5)</f>
@@ -5542,81 +5616,89 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="76">
-        <v>85000000</v>
+      <c r="A108" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="1">
+        <v>17237000</v>
+      </c>
+      <c r="C108" s="1">
+        <v>12974000</v>
+      </c>
+      <c r="D108" s="1">
+        <v>80375000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-127997000</v>
       </c>
       <c r="F108" s="45"/>
       <c r="G108" s="45"/>
       <c r="H108" s="45"/>
       <c r="I108" s="45"/>
-      <c r="J108" s="48">
+      <c r="J108" s="70">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2401791142.2444892</v>
-      </c>
-      <c r="K108" s="49" t="s">
+        <v>2364965189.7351818</v>
+      </c>
+      <c r="K108" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L108" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="M108" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="70">
+        <f t="shared" ref="F109:I109" si="12">F108+F107</f>
+        <v>-105200000</v>
+      </c>
+      <c r="G109" s="70">
+        <f t="shared" si="12"/>
+        <v>-66125000</v>
+      </c>
+      <c r="H109" s="70">
+        <f t="shared" si="12"/>
+        <v>5000000</v>
+      </c>
+      <c r="I109" s="70">
+        <f t="shared" si="12"/>
+        <v>150000000</v>
+      </c>
+      <c r="J109" s="70">
+        <f>J108+J107</f>
+        <v>2614965189.7351818</v>
+      </c>
+      <c r="K109" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="L109" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="M109" s="52">
+        <f>M106</f>
+        <v>0.13335254620753792</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F110" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="G110" s="72"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="53" t="s">
         <v>161</v>
-      </c>
-      <c r="M108" s="51">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="48">
-        <f t="shared" ref="F109:H109" si="11">F108+F107</f>
-        <v>105226526.99730119</v>
-      </c>
-      <c r="G109" s="48">
-        <f t="shared" si="11"/>
-        <v>130266140.98722067</v>
-      </c>
-      <c r="H109" s="48">
-        <f t="shared" si="11"/>
-        <v>161264160.01677671</v>
-      </c>
-      <c r="I109" s="48">
-        <f>I108+I107</f>
-        <v>199638441.03179359</v>
-      </c>
-      <c r="J109" s="48">
-        <f>J108+J107</f>
-        <v>2648935375.243679</v>
-      </c>
-      <c r="K109" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L109" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="M109" s="53">
-        <f>M106</f>
-        <v>0.13047246776313692</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F110" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="G110" s="71"/>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="54" t="s">
-        <v>164</v>
       </c>
       <c r="G111" s="40">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1863609731.2205093</v>
+        <v>1348477242.9983623</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="54" t="s">
-        <v>165</v>
+      <c r="F112" s="53" t="s">
+        <v>162</v>
       </c>
       <c r="G112" s="40">
         <f>E41</f>
@@ -5624,8 +5706,8 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="54" t="s">
-        <v>151</v>
+      <c r="F113" s="53" t="s">
+        <v>149</v>
       </c>
       <c r="G113" s="40">
         <f>M100</f>
@@ -5633,55 +5715,55 @@
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="54" t="s">
-        <v>166</v>
+      <c r="F114" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="G114" s="40">
         <f>G111+G112-G113</f>
-        <v>1258370731.2205093</v>
+        <v>743238242.9983623</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="G115" s="55">
+      <c r="F115" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G115" s="54">
         <f>E35*(1+(5*K17))</f>
         <v>61343813.832482196</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="56" t="s">
+      <c r="F116" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G116" s="56">
+        <f>G114/G115</f>
+        <v>12.115944486725242</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" s="57" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G118" s="59">
+        <f>G116/G117-1</f>
+        <v>-0.58047283633222846</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F119" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="G116" s="57">
-        <f>G114/G115</f>
-        <v>20.513408811797561</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="G117" s="58" cm="1">
-        <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.02</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G118" s="60">
-        <f>G116/G117-1</f>
-        <v>-0.26790118444691069</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F119" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="G119" s="61" t="str">
+      <c r="G119" s="60" t="str">
         <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5706,8 +5788,9 @@
     <hyperlink ref="E37" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1866581/000186658123000038/0001866581-23-000038-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E75" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1866581/000186658123000038/0001866581-23-000038-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NYSE:BROS/explorer/revenue_proj" xr:uid="{51C8C0CC-E610-A442-87D2-8C2AB36CDA6A}"/>
+    <hyperlink ref="K107" r:id="rId11" xr:uid="{8B5863B4-CC3F-994A-A54F-26EA50952A3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23EAD4-C8CE-B941-BE91-FADADB42D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3606A22-AF47-434E-A445-A295D4B49FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23700" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,6 +2197,7 @@
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2217,7 +2218,7 @@
       <sheetData sheetId="12">
         <row r="8">
           <cell r="C8">
-            <v>3.8390000000000001E-2</v>
+            <v>3.7229999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2227,6 +2228,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2354,11 +2356,9 @@
     <v>Powered by Refinitiv</v>
     <v>54.18</v>
     <v>25.451000000000001</v>
-    <v>2.3719999999999999</v>
-    <v>-0.86</v>
-    <v>-2.8917000000000002E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>2.3740000000000001</v>
+    <v>-0.44</v>
+    <v>-1.5401E-2</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2366,24 +2366,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>29.63</v>
+    <v>28.66</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45091.975077267969</v>
+    <v>45100.784521573434</v>
     <v>0</v>
-    <v>28.64</v>
-    <v>4731497040</v>
+    <v>27.82</v>
+    <v>4608622290</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>29.57</v>
-    <v>29.74</v>
-    <v>28.88</v>
-    <v>28.88</v>
+    <v>28.33</v>
+    <v>28.57</v>
+    <v>28.13</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>905249</v>
-    <v>1181229</v>
+    <v>312681</v>
+    <v>777597</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2415,8 +2414,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2436,7 +2433,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2453,7 +2449,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2464,16 +2460,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2537,19 +2530,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2593,9 +2580,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2603,9 +2587,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3183,10 +3164,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3719,15 +3700,15 @@
       </c>
       <c r="L17" s="62">
         <f>M102/E4</f>
-        <v>6.4024630723181764</v>
+        <v>6.2361941213403842</v>
       </c>
       <c r="M17" s="62">
         <f>M102/E29</f>
-        <v>-995.47591836734694</v>
+        <v>-969.62387755102043</v>
       </c>
       <c r="N17" s="63">
         <f>M102/E108</f>
-        <v>-36.965687008289258</v>
+        <v>-36.00570552434823</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3810,11 +3791,11 @@
       </c>
       <c r="L20" s="62">
         <f>M102/F4</f>
-        <v>4.856304054192754</v>
+        <v>4.7301881248075546</v>
       </c>
       <c r="M20" s="64">
         <f>G117/F32</f>
-        <v>74.051282051282044</v>
+        <v>72.128205128205124</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,7 +5266,7 @@
       </c>
       <c r="M95" s="38">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8390000000000001E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5309,7 +5290,7 @@
       </c>
       <c r="M96" s="39" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.3719999999999999</v>
+        <v>2.3740000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5356,7 +5337,7 @@
       </c>
       <c r="M98" s="37">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14657692</v>
+        <v>0.14826198000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5425,7 +5406,7 @@
       </c>
       <c r="M101" s="35">
         <f>M100/M104</f>
-        <v>0.11674949333329232</v>
+        <v>0.1194903143342663</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5449,7 +5430,7 @@
       </c>
       <c r="M102" s="40" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4731497040</v>
+        <v>4608622290</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5473,7 +5454,7 @@
       </c>
       <c r="M103" s="35">
         <f>M102/M104</f>
-        <v>0.88325050666670768</v>
+        <v>0.88050968566573373</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5497,7 +5478,7 @@
       </c>
       <c r="M104" s="41">
         <f>M100+M102</f>
-        <v>5356914040</v>
+        <v>5234039290</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5569,7 +5550,7 @@
       </c>
       <c r="M106" s="43">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13335254620753792</v>
+        <v>0.13452580133843936</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5637,7 +5618,7 @@
       <c r="I108" s="45"/>
       <c r="J108" s="70">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2364965189.7351818</v>
+        <v>2339631364.1949682</v>
       </c>
       <c r="K108" s="48" t="s">
         <v>157</v>
@@ -5668,7 +5649,7 @@
       </c>
       <c r="J109" s="70">
         <f>J108+J107</f>
-        <v>2614965189.7351818</v>
+        <v>2589631364.1949682</v>
       </c>
       <c r="K109" s="48" t="s">
         <v>153</v>
@@ -5678,7 +5659,7 @@
       </c>
       <c r="M109" s="52">
         <f>M106</f>
-        <v>0.13335254620753792</v>
+        <v>0.13452580133843936</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5693,7 +5674,7 @@
       </c>
       <c r="G111" s="40">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1348477242.9983623</v>
+        <v>1327599511.690856</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5720,7 +5701,7 @@
       </c>
       <c r="G114" s="40">
         <f>G111+G112-G113</f>
-        <v>743238242.9983623</v>
+        <v>722360511.69085598</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5738,7 +5719,7 @@
       </c>
       <c r="G116" s="56">
         <f>G114/G115</f>
-        <v>12.115944486725242</v>
+        <v>11.775604850123591</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5747,7 +5728,7 @@
       </c>
       <c r="G117" s="57" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.88</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5756,7 +5737,7 @@
       </c>
       <c r="G118" s="59">
         <f>G116/G117-1</f>
-        <v>-0.58047283633222846</v>
+        <v>-0.58138624777377923</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3606A22-AF47-434E-A445-A295D4B49FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B69FF-0AF3-2940-A997-D50103A25089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23700" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -605,18 +605,28 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -953,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1106,6 +1116,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,12 +2208,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2214,14 +2231,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2229,6 +2246,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2357,8 +2375,10 @@
     <v>54.18</v>
     <v>25.451000000000001</v>
     <v>2.3740000000000001</v>
-    <v>-0.44</v>
-    <v>-1.5401E-2</v>
+    <v>-0.5</v>
+    <v>-1.7774999999999999E-2</v>
+    <v>0.01</v>
+    <v>3.6179999999999996E-4</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2366,23 +2386,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.66</v>
+    <v>28.3705</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45100.784521573434</v>
+    <v>45103.930298657033</v>
     <v>0</v>
-    <v>27.82</v>
-    <v>4608622290</v>
+    <v>27.6</v>
+    <v>4526705790</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>28.33</v>
-    <v>28.57</v>
+    <v>27.81</v>
     <v>28.13</v>
+    <v>27.63</v>
+    <v>27.65</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>312681</v>
-    <v>777597</v>
+    <v>460119</v>
+    <v>742889</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2414,6 +2435,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2433,6 +2456,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2449,7 +2473,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2460,13 +2484,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2530,13 +2557,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2580,6 +2613,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2587,6 +2623,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3164,10 +3203,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3700,15 +3739,15 @@
       </c>
       <c r="L17" s="62">
         <f>M102/E4</f>
-        <v>6.2361941213403842</v>
+        <v>6.1253481540218564</v>
       </c>
       <c r="M17" s="62">
         <f>M102/E29</f>
-        <v>-969.62387755102043</v>
+        <v>-952.38918367346935</v>
       </c>
       <c r="N17" s="63">
         <f>M102/E108</f>
-        <v>-36.00570552434823</v>
+        <v>-35.365717868387542</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3753,6 +3792,9 @@
       <c r="M19" s="20" t="s">
         <v>171</v>
       </c>
+      <c r="N19" s="20" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -3791,11 +3833,15 @@
       </c>
       <c r="L20" s="62">
         <f>M102/F4</f>
-        <v>4.7301881248075546</v>
+        <v>4.6461108385507544</v>
       </c>
       <c r="M20" s="64">
         <f>G117/F32</f>
-        <v>72.128205128205124</v>
+        <v>70.84615384615384</v>
+      </c>
+      <c r="N20" s="63">
+        <f>M102/F107</f>
+        <v>-43.029522718631178</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3836,7 +3882,7 @@
         <v>0.22636203866432347</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -3872,6 +3918,12 @@
         <f t="shared" si="4"/>
         <v>0.16311360448807855</v>
       </c>
+      <c r="M22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3888,6 +3940,14 @@
       </c>
       <c r="E23" s="10">
         <v>-2612000</v>
+      </c>
+      <c r="M23" s="77">
+        <f>(-1*E99)/M102</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="78">
+        <f>E108/M102</f>
+        <v>-2.827597063691652E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5266,7 +5326,7 @@
       </c>
       <c r="M95" s="38">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5337,7 +5397,7 @@
       </c>
       <c r="M98" s="37">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14826198000000002</v>
+        <v>0.14804214000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5353,8 +5413,8 @@
       <c r="D99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>91</v>
+      <c r="E99" s="1">
+        <v>0</v>
       </c>
       <c r="L99" s="75" t="s">
         <v>148</v>
@@ -5406,7 +5466,7 @@
       </c>
       <c r="M101" s="35">
         <f>M100/M104</f>
-        <v>0.1194903143342663</v>
+        <v>0.12139015809442694</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5430,7 +5490,7 @@
       </c>
       <c r="M102" s="40" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4608622290</v>
+        <v>4526705790</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5454,7 +5514,7 @@
       </c>
       <c r="M103" s="35">
         <f>M102/M104</f>
-        <v>0.88050968566573373</v>
+        <v>0.87860984190557301</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5478,7 +5538,7 @@
       </c>
       <c r="M104" s="41">
         <f>M100+M102</f>
-        <v>5234039290</v>
+        <v>5152122790</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5550,7 +5610,7 @@
       </c>
       <c r="M106" s="43">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13452580133843936</v>
+        <v>0.13411424851514117</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5618,7 +5678,7 @@
       <c r="I108" s="45"/>
       <c r="J108" s="70">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2339631364.1949682</v>
+        <v>2348455893.5897503</v>
       </c>
       <c r="K108" s="48" t="s">
         <v>157</v>
@@ -5649,7 +5709,7 @@
       </c>
       <c r="J109" s="70">
         <f>J108+J107</f>
-        <v>2589631364.1949682</v>
+        <v>2598455893.5897503</v>
       </c>
       <c r="K109" s="48" t="s">
         <v>153</v>
@@ -5659,7 +5719,7 @@
       </c>
       <c r="M109" s="52">
         <f>M106</f>
-        <v>0.13452580133843936</v>
+        <v>0.13411424851514117</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5674,7 +5734,7 @@
       </c>
       <c r="G111" s="40">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1327599511.690856</v>
+        <v>1334868756.5956216</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5701,7 +5761,7 @@
       </c>
       <c r="G114" s="40">
         <f>G111+G112-G113</f>
-        <v>722360511.69085598</v>
+        <v>729629756.59562159</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5719,7 +5779,7 @@
       </c>
       <c r="G116" s="56">
         <f>G114/G115</f>
-        <v>11.775604850123591</v>
+        <v>11.894104898467772</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5728,7 +5788,7 @@
       </c>
       <c r="G117" s="57" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.13</v>
+        <v>27.63</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5737,7 +5797,7 @@
       </c>
       <c r="G118" s="59">
         <f>G116/G117-1</f>
-        <v>-0.58138624777377923</v>
+        <v>-0.56952208112675451</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B69FF-0AF3-2940-A997-D50103A25089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7F33C-1AD2-C142-83AE-8147FCD0642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -794,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -905,65 +905,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1022,64 +969,10 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,29 +992,64 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1173,7 +1101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>BROS</a:t>
+              <a:t>Dutch Bros</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1212,9 +1140,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.0380587834926668E-2"/>
-          <c:y val="0.12737736271338176"/>
+          <c:y val="0.15483742165622721"/>
           <c:w val="0.85569395617776167"/>
-          <c:h val="0.74375897780219336"/>
+          <c:h val="0.6918901101857956"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1571,8 +1499,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3245960273998264"/>
-          <c:y val="0.91344055830230519"/>
+          <c:x val="0.33253518301942325"/>
+          <c:y val="0.89818504794321774"/>
           <c:w val="0.36349628778559701"/>
           <c:h val="5.2967710431544891E-2"/>
         </c:manualLayout>
@@ -2156,13 +2084,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2234,7 +2162,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2374,11 +2302,11 @@
     <v>Powered by Refinitiv</v>
     <v>54.18</v>
     <v>25.451000000000001</v>
-    <v>2.3740000000000001</v>
-    <v>-0.5</v>
-    <v>-1.7774999999999999E-2</v>
-    <v>0.01</v>
-    <v>3.6179999999999996E-4</v>
+    <v>2.327</v>
+    <v>0.2</v>
+    <v>7.0799999999999995E-3</v>
+    <v>0.14000000000000001</v>
+    <v>4.921E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2386,24 +2314,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.3705</v>
+    <v>28.82</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45103.930298657033</v>
+    <v>45107.970481272656</v>
     <v>0</v>
-    <v>27.6</v>
-    <v>4526705790</v>
+    <v>28.27</v>
+    <v>4661048850</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>27.81</v>
-    <v>28.13</v>
-    <v>27.63</v>
-    <v>27.65</v>
+    <v>28.37</v>
+    <v>28.25</v>
+    <v>28.45</v>
+    <v>28.59</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>460119</v>
-    <v>742889</v>
+    <v>365446</v>
+    <v>728533</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2565,9 +2493,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3203,10 +3131,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3666,7 +3594,7 @@
         <f>E23/(E73+E57+E62)</f>
         <v>-2.9770011841899809E-3</v>
       </c>
-      <c r="N14" s="65">
+      <c r="N14" s="39">
         <f>E68/E73</f>
         <v>3.7082261802711369</v>
       </c>
@@ -3737,17 +3665,17 @@
         <f>(E36+D36+C36)/3</f>
         <v>3.652450823189142E-2</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="36">
         <f>M102/E4</f>
-        <v>6.1253481540218564</v>
-      </c>
-      <c r="M17" s="62">
+        <v>6.307135540424242</v>
+      </c>
+      <c r="M17" s="36">
         <f>M102/E29</f>
-        <v>-952.38918367346935</v>
-      </c>
-      <c r="N17" s="63">
+        <v>-980.65408163265306</v>
+      </c>
+      <c r="N17" s="37">
         <f>M102/E108</f>
-        <v>-35.365717868387542</v>
+        <v>-36.415297624163067</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3812,36 +3740,36 @@
       <c r="E20" s="10">
         <v>60592000</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="35">
         <v>127700000</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="35">
         <v>182800000</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="35">
         <v>226000000</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="35">
         <v>284500000</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="35">
         <v>348900000</v>
       </c>
       <c r="K20" s="26">
         <f>E41-E57-E62</f>
         <v>-605239000</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="36">
         <f>M102/F4</f>
-        <v>4.6461108385507544</v>
-      </c>
-      <c r="M20" s="64">
+        <v>4.7839975880119061</v>
+      </c>
+      <c r="M20" s="38">
         <f>G117/F32</f>
-        <v>70.84615384615384</v>
-      </c>
-      <c r="N20" s="63">
+        <v>72.948717948717942</v>
+      </c>
+      <c r="N20" s="37">
         <f>M102/F107</f>
-        <v>-43.029522718631178</v>
+        <v>-44.306548003802284</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3898,23 +3826,23 @@
       <c r="E22" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="42">
         <f>F20/F4</f>
         <v>0.13106845940675357</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="42">
         <f t="shared" ref="G22:J22" si="4">G20/G4</f>
         <v>0.14718196457326893</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="42">
         <f t="shared" si="4"/>
         <v>0.14780902550686723</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="42">
         <f t="shared" si="4"/>
         <v>0.1565767749036874</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="42">
         <f t="shared" si="4"/>
         <v>0.16311360448807855</v>
       </c>
@@ -3941,13 +3869,13 @@
       <c r="E23" s="10">
         <v>-2612000</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="45">
         <f>(-1*E99)/M102</f>
         <v>0</v>
       </c>
-      <c r="N23" s="78">
+      <c r="N23" s="46">
         <f>E108/M102</f>
-        <v>-2.827597063691652E-2</v>
+        <v>-2.7460986597469365E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4051,19 +3979,19 @@
       <c r="E29" s="11">
         <v>-4753000</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="40">
         <v>22780000</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="40">
         <v>78490000</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="40">
         <v>70495000</v>
       </c>
-      <c r="I29" s="66">
+      <c r="I29" s="40">
         <v>107000000</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="40">
         <v>149100000</v>
       </c>
     </row>
@@ -4121,23 +4049,23 @@
       <c r="E31" s="2">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="42">
         <f>F29/F4</f>
         <v>2.3380888843272093E-2</v>
       </c>
-      <c r="G31" s="68">
+      <c r="G31" s="42">
         <f t="shared" ref="G31:J31" si="6">G29/G4</f>
         <v>6.3196457326892108E-2</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="42">
         <f t="shared" si="6"/>
         <v>4.6105297580117721E-2</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="42">
         <f t="shared" si="6"/>
         <v>5.8888277380297192E-2</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="42">
         <f t="shared" si="6"/>
         <v>6.9705469845722304E-2</v>
       </c>
@@ -4158,19 +4086,19 @@
       <c r="E32" s="12">
         <v>-0.09</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="41">
         <v>0.39</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="41">
         <v>1.35</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="41">
         <v>1.21</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="41">
         <v>1.84</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="41">
         <v>2.57</v>
       </c>
     </row>
@@ -5062,10 +4990,10 @@
       <c r="E84" s="1">
         <v>-15817000</v>
       </c>
-      <c r="L84" s="73" t="s">
+      <c r="L84" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="M84" s="74"/>
+      <c r="M84" s="70"/>
     </row>
     <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5083,10 +5011,10 @@
       <c r="E85" s="1">
         <v>1606000</v>
       </c>
-      <c r="L85" s="75" t="s">
+      <c r="L85" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="M85" s="76"/>
+      <c r="M85" s="71"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5104,10 +5032,10 @@
       <c r="E86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L86" s="32" t="s">
+      <c r="L86" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="M86" s="33">
+      <c r="M86" s="48">
         <f>E18</f>
         <v>18018000</v>
       </c>
@@ -5128,10 +5056,10 @@
       <c r="E87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L87" s="32" t="s">
+      <c r="L87" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="M87" s="33">
+      <c r="M87" s="48">
         <f>E57</f>
         <v>130762000</v>
       </c>
@@ -5152,10 +5080,10 @@
       <c r="E88" s="10">
         <v>59883000</v>
       </c>
-      <c r="L88" s="32" t="s">
+      <c r="L88" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="M88" s="33">
+      <c r="M88" s="48">
         <f>E62</f>
         <v>494655000</v>
       </c>
@@ -5176,10 +5104,10 @@
       <c r="E89" s="1">
         <v>-187880000</v>
       </c>
-      <c r="L89" s="34" t="s">
+      <c r="L89" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="M89" s="35">
+      <c r="M89" s="50">
         <f>M86/(M87+M88)</f>
         <v>2.8809578249392006E-2</v>
       </c>
@@ -5204,10 +5132,10 @@
         <f t="shared" si="9"/>
         <v>0.25423132506644008</v>
       </c>
-      <c r="L90" s="32" t="s">
+      <c r="L90" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="M90" s="33">
+      <c r="M90" s="48">
         <f>E28</f>
         <v>2599000</v>
       </c>
@@ -5228,10 +5156,10 @@
       <c r="E91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L91" s="32" t="s">
+      <c r="L91" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="33">
+      <c r="M91" s="48">
         <f>E26</f>
         <v>-16654000</v>
       </c>
@@ -5252,10 +5180,10 @@
       <c r="E92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L92" s="34" t="s">
+      <c r="L92" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="M92" s="35">
+      <c r="M92" s="50">
         <f>M90/M91</f>
         <v>-0.15605860453944997</v>
       </c>
@@ -5276,10 +5204,10 @@
       <c r="E93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L93" s="36" t="s">
+      <c r="L93" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="M93" s="37">
+      <c r="M93" s="50">
         <f>M89*(1-M92)</f>
         <v>3.330556082836221E-2</v>
       </c>
@@ -5300,10 +5228,10 @@
       <c r="E94" s="1">
         <v>-4692000</v>
       </c>
-      <c r="L94" s="75" t="s">
+      <c r="L94" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="M94" s="76"/>
+      <c r="M94" s="71"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -5321,12 +5249,12 @@
       <c r="E95" s="10">
         <v>-192572000</v>
       </c>
-      <c r="L95" s="32" t="s">
+      <c r="L95" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="M95" s="38">
+      <c r="M95" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5345,12 +5273,12 @@
       <c r="E96" s="1">
         <v>-10569000</v>
       </c>
-      <c r="L96" s="32" t="s">
+      <c r="L96" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="M96" s="39" cm="1">
+      <c r="M96" s="52" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.3740000000000001</v>
+        <v>2.327</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5369,10 +5297,10 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="32" t="s">
+      <c r="L97" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="M97" s="38">
+      <c r="M97" s="51">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5392,12 +5320,12 @@
       <c r="E98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L98" s="36" t="s">
+      <c r="L98" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="M98" s="37">
+      <c r="M98" s="50">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14804214000000002</v>
+        <v>0.14432542000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5416,10 +5344,10 @@
       <c r="E99" s="1">
         <v>0</v>
       </c>
-      <c r="L99" s="75" t="s">
+      <c r="L99" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="M99" s="76"/>
+      <c r="M99" s="71"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -5437,10 +5365,10 @@
       <c r="E100" s="1">
         <v>144930000</v>
       </c>
-      <c r="L100" s="32" t="s">
+      <c r="L100" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="M100" s="33">
+      <c r="M100" s="48">
         <f>M87+M88</f>
         <v>625417000</v>
       </c>
@@ -5461,12 +5389,12 @@
       <c r="E101" s="10">
         <v>134361000</v>
       </c>
-      <c r="L101" s="34" t="s">
+      <c r="L101" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="M101" s="35">
+      <c r="M101" s="50">
         <f>M100/M104</f>
-        <v>0.12139015809442694</v>
+        <v>0.11830531355839553</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5485,12 +5413,12 @@
       <c r="E102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L102" s="32" t="s">
+      <c r="L102" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M102" s="40" cm="1">
+      <c r="M102" s="53" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4526705790</v>
+        <v>4661048850</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5509,12 +5437,12 @@
       <c r="E103" s="10">
         <v>1672000</v>
       </c>
-      <c r="L103" s="34" t="s">
+      <c r="L103" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="M103" s="35">
+      <c r="M103" s="50">
         <f>M102/M104</f>
-        <v>0.87860984190557301</v>
+        <v>0.88169468644160442</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5533,12 +5461,12 @@
       <c r="E104" s="1">
         <v>18506000</v>
       </c>
-      <c r="L104" s="36" t="s">
+      <c r="L104" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="M104" s="41">
+      <c r="M104" s="54">
         <f>M100+M102</f>
-        <v>5152122790</v>
+        <v>5286465850</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5557,10 +5485,10 @@
       <c r="E105" s="11">
         <v>20178000</v>
       </c>
-      <c r="L105" s="75" t="s">
+      <c r="L105" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="M105" s="76"/>
+      <c r="M105" s="71"/>
     </row>
     <row r="106" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -5582,35 +5510,35 @@
         <f>(E23*(1-0.2))+E78+E89+E82</f>
         <v>-153568600</v>
       </c>
-      <c r="F106" s="44">
+      <c r="F106" s="32">
         <f>E106*(1+$M$107)</f>
         <v>-190111652.16279703</v>
       </c>
-      <c r="G106" s="44">
+      <c r="G106" s="32">
         <f t="shared" ref="G106:J106" si="11">F106*(1+$M$107)</f>
         <v>-235350457.63305995</v>
       </c>
-      <c r="H106" s="44">
+      <c r="H106" s="32">
         <f t="shared" si="11"/>
         <v>-291354250.39943969</v>
       </c>
-      <c r="I106" s="44">
+      <c r="I106" s="32">
         <f t="shared" si="11"/>
         <v>-360684657.59335405</v>
       </c>
-      <c r="J106" s="44">
+      <c r="J106" s="32">
         <f t="shared" si="11"/>
         <v>-446512868.93834597</v>
       </c>
-      <c r="K106" s="45" t="s">
+      <c r="K106" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="L106" s="42" t="s">
+      <c r="L106" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="56">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13411424851514117</v>
+        <v>0.13119118074949046</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5630,28 +5558,28 @@
         <f>(E108/D108)-1</f>
         <v>-2.5924976671850697</v>
       </c>
-      <c r="F107" s="69">
+      <c r="F107" s="43">
         <v>-105200000</v>
       </c>
-      <c r="G107" s="69">
+      <c r="G107" s="43">
         <v>-66125000</v>
       </c>
-      <c r="H107" s="69">
+      <c r="H107" s="43">
         <v>5000000</v>
       </c>
-      <c r="I107" s="69">
+      <c r="I107" s="43">
         <v>150000000</v>
       </c>
-      <c r="J107" s="69">
+      <c r="J107" s="43">
         <v>250000000</v>
       </c>
-      <c r="K107" s="45" t="s">
+      <c r="K107" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="L107" s="46" t="s">
+      <c r="L107" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="M107" s="47">
+      <c r="M107" s="58">
         <f>(SUM(F5:J5)/5)</f>
         <v>0.23795914114471986</v>
       </c>
@@ -5672,139 +5600,139 @@
       <c r="E108" s="1">
         <v>-127997000</v>
       </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="70">
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="44">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2348455893.5897503</v>
-      </c>
-      <c r="K108" s="48" t="s">
+        <v>2413100581.3421049</v>
+      </c>
+      <c r="K108" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="L108" s="49" t="s">
+      <c r="L108" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="M108" s="50">
+      <c r="M108" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="70">
+      <c r="F109" s="44">
         <f t="shared" ref="F109:I109" si="12">F108+F107</f>
         <v>-105200000</v>
       </c>
-      <c r="G109" s="70">
+      <c r="G109" s="44">
         <f t="shared" si="12"/>
         <v>-66125000</v>
       </c>
-      <c r="H109" s="70">
+      <c r="H109" s="44">
         <f t="shared" si="12"/>
         <v>5000000</v>
       </c>
-      <c r="I109" s="70">
+      <c r="I109" s="44">
         <f t="shared" si="12"/>
         <v>150000000</v>
       </c>
-      <c r="J109" s="70">
+      <c r="J109" s="44">
         <f>J108+J107</f>
-        <v>2598455893.5897503</v>
-      </c>
-      <c r="K109" s="48" t="s">
+        <v>2663100581.3421049</v>
+      </c>
+      <c r="K109" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="L109" s="51" t="s">
+      <c r="L109" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="M109" s="52">
+      <c r="M109" s="58">
         <f>M106</f>
-        <v>0.13411424851514117</v>
+        <v>0.13119118074949046</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F110" s="71" t="s">
+      <c r="F110" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="G110" s="72"/>
+      <c r="G110" s="68"/>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="53" t="s">
+      <c r="F111" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="G111" s="40">
+      <c r="G111" s="53">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1334868756.5956216</v>
+        <v>1388219271.1810832</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="53" t="s">
+      <c r="F112" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="G112" s="40">
+      <c r="G112" s="53">
         <f>E41</f>
         <v>20178000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="53" t="s">
+      <c r="F113" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="G113" s="40">
+      <c r="G113" s="53">
         <f>M100</f>
         <v>625417000</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="53" t="s">
+      <c r="F114" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="40">
+      <c r="G114" s="53">
         <f>G111+G112-G113</f>
-        <v>729629756.59562159</v>
+        <v>782980271.1810832</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="53" t="s">
+      <c r="F115" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="G115" s="54">
+      <c r="G115" s="62">
         <f>E35*(1+(5*K17))</f>
         <v>61343813.832482196</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="55" t="s">
+      <c r="F116" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G116" s="56">
+      <c r="G116" s="64">
         <f>G114/G115</f>
-        <v>11.894104898467772</v>
+        <v>12.763801633189081</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="53" t="s">
+      <c r="F117" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="G117" s="57" cm="1">
+      <c r="G117" s="65" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>27.63</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="58" t="s">
+      <c r="F118" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="G118" s="59">
+      <c r="G118" s="66">
         <f>G116/G117-1</f>
-        <v>-0.56952208112675451</v>
+        <v>-0.55136022378948746</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F119" s="58" t="s">
+      <c r="F119" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="G119" s="60" t="str">
+      <c r="G119" s="67" t="str">
         <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7F33C-1AD2-C142-83AE-8147FCD0642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D299E6-FEA2-304A-A9E8-178FB6CF3684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2127,7 +2127,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2141,10 +2140,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2158,14 +2159,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2175,6 +2176,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2303,10 +2305,10 @@
     <v>54.18</v>
     <v>25.451000000000001</v>
     <v>2.327</v>
-    <v>0.2</v>
-    <v>7.0799999999999995E-3</v>
-    <v>0.14000000000000001</v>
-    <v>4.921E-3</v>
+    <v>-0.18</v>
+    <v>-6.3739999999999995E-3</v>
+    <v>0.15</v>
+    <v>5.3460000000000001E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2314,24 +2316,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.82</v>
+    <v>28.62</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45107.970481272656</v>
+    <v>45114.999027060156</v>
     <v>0</v>
-    <v>28.27</v>
-    <v>4661048850</v>
+    <v>28.045000000000002</v>
+    <v>4597154000</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>28.37</v>
-    <v>28.25</v>
-    <v>28.45</v>
-    <v>28.59</v>
+    <v>28.21</v>
+    <v>28.24</v>
+    <v>28.06</v>
+    <v>28.21</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>365446</v>
-    <v>728533</v>
+    <v>475439</v>
+    <v>659983</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -3134,7 +3136,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3667,15 +3669,15 @@
       </c>
       <c r="L17" s="36">
         <f>M102/E4</f>
-        <v>6.307135540424242</v>
+        <v>6.2206757129789505</v>
       </c>
       <c r="M17" s="36">
         <f>M102/E29</f>
-        <v>-980.65408163265306</v>
+        <v>-967.21102461603198</v>
       </c>
       <c r="N17" s="37">
         <f>M102/E108</f>
-        <v>-36.415297624163067</v>
+        <v>-35.916107408767395</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3761,15 +3763,15 @@
       </c>
       <c r="L20" s="36">
         <f>M102/F4</f>
-        <v>4.7839975880119061</v>
+        <v>4.7184173252591606</v>
       </c>
       <c r="M20" s="38">
         <f>G117/F32</f>
-        <v>72.948717948717942</v>
+        <v>71.948717948717942</v>
       </c>
       <c r="N20" s="37">
         <f>M102/F107</f>
-        <v>-44.306548003802284</v>
+        <v>-43.699182509505704</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,7 +3877,7 @@
       </c>
       <c r="N23" s="46">
         <f>E108/M102</f>
-        <v>-2.7460986597469365E-2</v>
+        <v>-2.784266091586229E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5254,7 +5256,7 @@
       </c>
       <c r="M95" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5325,7 +5327,7 @@
       </c>
       <c r="M98" s="50">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14432542000000001</v>
+        <v>0.14184393000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5394,7 +5396,7 @@
       </c>
       <c r="M101" s="50">
         <f>M100/M104</f>
-        <v>0.11830531355839553</v>
+        <v>0.11975270417577856</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5418,7 +5420,7 @@
       </c>
       <c r="M102" s="53" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4661048850</v>
+        <v>4597154000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5442,7 +5444,7 @@
       </c>
       <c r="M103" s="50">
         <f>M102/M104</f>
-        <v>0.88169468644160442</v>
+        <v>0.88024729582422145</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5466,7 +5468,7 @@
       </c>
       <c r="M104" s="54">
         <f>M100+M102</f>
-        <v>5286465850</v>
+        <v>5222571000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5538,7 +5540,7 @@
       </c>
       <c r="M106" s="56">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13119118074949046</v>
+        <v>0.12884616678486743</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5606,7 +5608,7 @@
       <c r="I108" s="33"/>
       <c r="J108" s="44">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2413100581.3421049</v>
+        <v>2467592285.1428828</v>
       </c>
       <c r="K108" s="34" t="s">
         <v>157</v>
@@ -5637,7 +5639,7 @@
       </c>
       <c r="J109" s="44">
         <f>J108+J107</f>
-        <v>2663100581.3421049</v>
+        <v>2717592285.1428828</v>
       </c>
       <c r="K109" s="34" t="s">
         <v>153</v>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="M109" s="58">
         <f>M106</f>
-        <v>0.13119118074949046</v>
+        <v>0.12884616678486743</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5662,7 +5664,7 @@
       </c>
       <c r="G111" s="53">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1388219271.1810832</v>
+        <v>1433320302.7832096</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5689,7 +5691,7 @@
       </c>
       <c r="G114" s="53">
         <f>G111+G112-G113</f>
-        <v>782980271.1810832</v>
+        <v>828081302.78320956</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5707,7 +5709,7 @@
       </c>
       <c r="G116" s="64">
         <f>G114/G115</f>
-        <v>12.763801633189081</v>
+        <v>13.49901890750607</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5716,7 +5718,7 @@
       </c>
       <c r="G117" s="65" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.45</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5725,7 +5727,7 @@
       </c>
       <c r="G118" s="66">
         <f>G116/G117-1</f>
-        <v>-0.55136022378948746</v>
+        <v>-0.51892306102971952</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D299E6-FEA2-304A-A9E8-178FB6CF3684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F1B85-FC67-F549-8C0C-DF825FB3D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -794,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -905,12 +905,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1051,6 +1060,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,8 +2099,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2125,8 +2135,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2135,21 +2144,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2159,24 +2169,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2305,10 +2303,8 @@
     <v>54.18</v>
     <v>25.451000000000001</v>
     <v>2.327</v>
-    <v>-0.18</v>
-    <v>-6.3739999999999995E-3</v>
-    <v>0.15</v>
-    <v>5.3460000000000001E-3</v>
+    <v>1.02</v>
+    <v>3.6351000000000001E-2</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2316,24 +2312,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.62</v>
+    <v>29.1</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45114.999027060156</v>
+    <v>45117.990197707812</v>
     <v>0</v>
-    <v>28.045000000000002</v>
-    <v>4597154000</v>
+    <v>28.04</v>
+    <v>4764263640</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>28.21</v>
-    <v>28.24</v>
     <v>28.06</v>
-    <v>28.21</v>
+    <v>28.06</v>
+    <v>29.08</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>475439</v>
-    <v>659983</v>
+    <v>910014</v>
+    <v>659686</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2365,8 +2360,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2386,7 +2379,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2403,7 +2395,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2414,16 +2406,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2487,19 +2476,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2543,9 +2526,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2553,9 +2533,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3133,10 +3110,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3256,10 +3233,10 @@
         <v>974300000</v>
       </c>
       <c r="G4" s="24">
-        <v>1242000000</v>
+        <v>1243000000</v>
       </c>
       <c r="H4" s="24">
-        <v>1529000000</v>
+        <v>1542000000</v>
       </c>
       <c r="I4" s="24">
         <v>1817000000</v>
@@ -3303,15 +3280,15 @@
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>0.27476136713537924</v>
+        <v>0.27578774504772663</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>0.23107890499194839</v>
+        <v>0.24054706355591304</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>0.18835840418574223</v>
+        <v>0.17833981841763946</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
@@ -3669,15 +3646,15 @@
       </c>
       <c r="L17" s="36">
         <f>M102/E4</f>
-        <v>6.2206757129789505</v>
+        <v>6.4468014592455871</v>
       </c>
       <c r="M17" s="36">
         <f>M102/E29</f>
-        <v>-967.21102461603198</v>
+        <v>-1002.3697959183673</v>
       </c>
       <c r="N17" s="37">
         <f>M102/E108</f>
-        <v>-35.916107408767395</v>
+        <v>-37.221682070673531</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3746,7 +3723,7 @@
         <v>127700000</v>
       </c>
       <c r="G20" s="35">
-        <v>182800000</v>
+        <v>179400000</v>
       </c>
       <c r="H20" s="35">
         <v>226000000</v>
@@ -3763,15 +3740,15 @@
       </c>
       <c r="L20" s="36">
         <f>M102/F4</f>
-        <v>4.7184173252591606</v>
+        <v>4.8899349686954734</v>
       </c>
       <c r="M20" s="38">
         <f>G117/F32</f>
-        <v>71.948717948717942</v>
+        <v>63.217391304347821</v>
       </c>
       <c r="N20" s="37">
         <f>M102/F107</f>
-        <v>-43.699182509505704</v>
+        <v>-45.28767718631179</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,11 +3774,11 @@
       </c>
       <c r="G21" s="16">
         <f t="shared" si="3"/>
-        <v>0.43148003132341417</v>
+        <v>0.40485512920908384</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="3"/>
-        <v>0.23632385120350108</v>
+        <v>0.25975473801560756</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="3"/>
@@ -3828,23 +3805,23 @@
       <c r="E22" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="72">
         <f>F20/F4</f>
         <v>0.13106845940675357</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="72">
         <f t="shared" ref="G22:J22" si="4">G20/G4</f>
-        <v>0.14718196457326893</v>
-      </c>
-      <c r="H22" s="42">
+        <v>0.14432823813354786</v>
+      </c>
+      <c r="H22" s="72">
         <f t="shared" si="4"/>
-        <v>0.14780902550686723</v>
-      </c>
-      <c r="I22" s="42">
+        <v>0.14656290531776914</v>
+      </c>
+      <c r="I22" s="72">
         <f t="shared" si="4"/>
         <v>0.1565767749036874</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="72">
         <f t="shared" si="4"/>
         <v>0.16311360448807855</v>
       </c>
@@ -3877,7 +3854,7 @@
       </c>
       <c r="N23" s="46">
         <f>E108/M102</f>
-        <v>-2.784266091586229E-2</v>
+        <v>-2.6866061509559953E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3982,19 +3959,19 @@
         <v>-4753000</v>
       </c>
       <c r="F29" s="40">
-        <v>22780000</v>
+        <v>27000000</v>
       </c>
       <c r="G29" s="40">
-        <v>78490000</v>
+        <v>49000000</v>
       </c>
       <c r="H29" s="40">
-        <v>70495000</v>
+        <v>62000000</v>
       </c>
       <c r="I29" s="40">
-        <v>107000000</v>
+        <v>92000000</v>
       </c>
       <c r="J29" s="40">
-        <v>149100000</v>
+        <v>118000000</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4016,23 +3993,23 @@
       </c>
       <c r="F30" s="16">
         <f t="shared" ref="F30:J30" si="5">(F29/E29)-1</f>
-        <v>-5.7927624658110668</v>
+        <v>-6.6806227645697458</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="5"/>
-        <v>2.4455662862159788</v>
+        <v>0.81481481481481488</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="5"/>
-        <v>-0.10186010956809788</v>
+        <v>0.26530612244897966</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="5"/>
-        <v>0.51783814454925881</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="5"/>
-        <v>0.3934579439252337</v>
+        <v>0.28260869565217384</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4053,23 +4030,23 @@
       </c>
       <c r="F31" s="42">
         <f>F29/F4</f>
-        <v>2.3380888843272093E-2</v>
+        <v>2.771220363337781E-2</v>
       </c>
       <c r="G31" s="42">
         <f t="shared" ref="G31:J31" si="6">G29/G4</f>
-        <v>6.3196457326892108E-2</v>
+        <v>3.9420756234915526E-2</v>
       </c>
       <c r="H31" s="42">
         <f t="shared" si="6"/>
-        <v>4.6105297580117721E-2</v>
+        <v>4.0207522697795074E-2</v>
       </c>
       <c r="I31" s="42">
         <f t="shared" si="6"/>
-        <v>5.8888277380297192E-2</v>
+        <v>5.0632911392405063E-2</v>
       </c>
       <c r="J31" s="42">
         <f t="shared" si="6"/>
-        <v>6.9705469845722304E-2</v>
+        <v>5.5165965404394578E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4089,19 +4066,19 @@
         <v>-0.09</v>
       </c>
       <c r="F32" s="41">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="G32" s="41">
-        <v>1.35</v>
+        <v>0.85</v>
       </c>
       <c r="H32" s="41">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="I32" s="41">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="J32" s="41">
-        <v>2.57</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -5256,7 +5233,7 @@
       </c>
       <c r="M95" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5327,7 +5304,7 @@
       </c>
       <c r="M98" s="50">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14184393000000001</v>
+        <v>0.14175103999999999</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5396,7 +5373,7 @@
       </c>
       <c r="M101" s="50">
         <f>M100/M104</f>
-        <v>0.11975270417577856</v>
+        <v>0.11603971399685752</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5420,7 +5397,7 @@
       </c>
       <c r="M102" s="53" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4597154000</v>
+        <v>4764263640</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5444,7 +5421,7 @@
       </c>
       <c r="M103" s="50">
         <f>M102/M104</f>
-        <v>0.88024729582422145</v>
+        <v>0.88396028600314247</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5468,7 +5445,7 @@
       </c>
       <c r="M104" s="54">
         <f>M100+M102</f>
-        <v>5222571000</v>
+        <v>5389680640</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5514,23 +5491,23 @@
       </c>
       <c r="F106" s="32">
         <f>E106*(1+$M$107)</f>
-        <v>-190111652.16279703</v>
+        <v>-190126270.37958276</v>
       </c>
       <c r="G106" s="32">
         <f t="shared" ref="G106:J106" si="11">F106*(1+$M$107)</f>
-        <v>-235350457.63305995</v>
+        <v>-235386652.53476432</v>
       </c>
       <c r="H106" s="32">
         <f t="shared" si="11"/>
-        <v>-291354250.39943969</v>
+        <v>-291421464.69766283</v>
       </c>
       <c r="I106" s="32">
         <f t="shared" si="11"/>
-        <v>-360684657.59335405</v>
+        <v>-360795606.59875703</v>
       </c>
       <c r="J106" s="32">
         <f t="shared" si="11"/>
-        <v>-446512868.93834597</v>
+        <v>-446684563.45868134</v>
       </c>
       <c r="K106" s="33" t="s">
         <v>172</v>
@@ -5540,7 +5517,7 @@
       </c>
       <c r="M106" s="56">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.12884616678486743</v>
+        <v>0.129167057612671</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5564,7 +5541,7 @@
         <v>-105200000</v>
       </c>
       <c r="G107" s="43">
-        <v>-66125000</v>
+        <v>-70000000</v>
       </c>
       <c r="H107" s="43">
         <v>5000000</v>
@@ -5583,7 +5560,7 @@
       </c>
       <c r="M107" s="58">
         <f>(SUM(F5:J5)/5)</f>
-        <v>0.23795914114471986</v>
+        <v>0.23805433128636172</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5608,7 +5585,7 @@
       <c r="I108" s="33"/>
       <c r="J108" s="44">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2467592285.1428828</v>
+        <v>2459990767.4538116</v>
       </c>
       <c r="K108" s="34" t="s">
         <v>157</v>
@@ -5627,7 +5604,7 @@
       </c>
       <c r="G109" s="44">
         <f t="shared" si="12"/>
-        <v>-66125000</v>
+        <v>-70000000</v>
       </c>
       <c r="H109" s="44">
         <f t="shared" si="12"/>
@@ -5639,7 +5616,7 @@
       </c>
       <c r="J109" s="44">
         <f>J108+J107</f>
-        <v>2717592285.1428828</v>
+        <v>2709990767.4538116</v>
       </c>
       <c r="K109" s="34" t="s">
         <v>153</v>
@@ -5649,7 +5626,7 @@
       </c>
       <c r="M109" s="58">
         <f>M106</f>
-        <v>0.12884616678486743</v>
+        <v>0.129167057612671</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5664,7 +5641,7 @@
       </c>
       <c r="G111" s="53">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1433320302.7832096</v>
+        <v>1423982750.6084766</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5691,7 +5668,7 @@
       </c>
       <c r="G114" s="53">
         <f>G111+G112-G113</f>
-        <v>828081302.78320956</v>
+        <v>818743750.60847664</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5709,7 +5686,7 @@
       </c>
       <c r="G116" s="64">
         <f>G114/G115</f>
-        <v>13.49901890750607</v>
+        <v>13.346802219443083</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5718,7 +5695,7 @@
       </c>
       <c r="G117" s="65" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.06</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5727,7 +5704,7 @@
       </c>
       <c r="G118" s="66">
         <f>G116/G117-1</f>
-        <v>-0.51892306102971952</v>
+        <v>-0.5410315605418472</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F1B85-FC67-F549-8C0C-DF825FB3D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CACF47-EA52-814A-8E32-703DABD986A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -1048,6 +1048,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,7 +1061,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2145,6 +2145,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2156,7 +2157,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2175,6 +2176,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2302,9 +2304,11 @@
     <v>Powered by Refinitiv</v>
     <v>54.18</v>
     <v>25.451000000000001</v>
-    <v>2.327</v>
-    <v>1.02</v>
-    <v>3.6351000000000001E-2</v>
+    <v>2.298</v>
+    <v>0.44</v>
+    <v>1.5443999999999999E-2</v>
+    <v>7.0000000000000007E-2</v>
+    <v>2.4199999999999998E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2312,23 +2316,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>29.1</v>
+    <v>29.26</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45117.990197707812</v>
+    <v>45132.966239363283</v>
     <v>0</v>
-    <v>28.04</v>
-    <v>4764263640</v>
+    <v>28.49</v>
+    <v>4739688690</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>28.06</v>
-    <v>28.06</v>
-    <v>29.08</v>
+    <v>28.49</v>
+    <v>28.49</v>
+    <v>28.93</v>
+    <v>29</v>
     <v>163833000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>910014</v>
-    <v>659686</v>
+    <v>612952</v>
+    <v>606220</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2360,6 +2365,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2379,6 +2386,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2395,7 +2403,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2406,13 +2414,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2476,13 +2487,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2526,6 +2543,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2533,6 +2553,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3110,10 +3133,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,15 +3669,15 @@
       </c>
       <c r="L17" s="36">
         <f>M102/E4</f>
-        <v>6.4468014592455871</v>
+        <v>6.413547669050029</v>
       </c>
       <c r="M17" s="36">
         <f>M102/E29</f>
-        <v>-1002.3697959183673</v>
+        <v>-997.19938775510207</v>
       </c>
       <c r="N17" s="37">
         <f>M102/E108</f>
-        <v>-37.221682070673531</v>
+        <v>-37.029685773885326</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3740,15 +3763,15 @@
       </c>
       <c r="L20" s="36">
         <f>M102/F4</f>
-        <v>4.8899349686954734</v>
+        <v>4.8647117828184339</v>
       </c>
       <c r="M20" s="38">
         <f>G117/F32</f>
-        <v>63.217391304347821</v>
+        <v>62.891304347826086</v>
       </c>
       <c r="N20" s="37">
         <f>M102/F107</f>
-        <v>-45.28767718631179</v>
+        <v>-45.054074999999997</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3805,23 +3828,23 @@
       <c r="E22" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="68">
         <f>F20/F4</f>
         <v>0.13106845940675357</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="68">
         <f t="shared" ref="G22:J22" si="4">G20/G4</f>
         <v>0.14432823813354786</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="68">
         <f t="shared" si="4"/>
         <v>0.14656290531776914</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="68">
         <f t="shared" si="4"/>
         <v>0.1565767749036874</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="68">
         <f t="shared" si="4"/>
         <v>0.16311360448807855</v>
       </c>
@@ -3854,7 +3877,7 @@
       </c>
       <c r="N23" s="46">
         <f>E108/M102</f>
-        <v>-2.6866061509559953E-2</v>
+        <v>-2.7005360134739146E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4969,10 +4992,10 @@
       <c r="E84" s="1">
         <v>-15817000</v>
       </c>
-      <c r="L84" s="69" t="s">
+      <c r="L84" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="M84" s="70"/>
+      <c r="M84" s="71"/>
     </row>
     <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4990,10 +5013,10 @@
       <c r="E85" s="1">
         <v>1606000</v>
       </c>
-      <c r="L85" s="71" t="s">
+      <c r="L85" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="M85" s="71"/>
+      <c r="M85" s="72"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5207,10 +5230,10 @@
       <c r="E94" s="1">
         <v>-4692000</v>
       </c>
-      <c r="L94" s="71" t="s">
+      <c r="L94" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="M94" s="71"/>
+      <c r="M94" s="72"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -5233,7 +5256,7 @@
       </c>
       <c r="M95" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5257,7 +5280,7 @@
       </c>
       <c r="M96" s="52" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.327</v>
+        <v>2.298</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5304,7 +5327,7 @@
       </c>
       <c r="M98" s="50">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14175103999999999</v>
+        <v>0.14225424000000003</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5323,10 +5346,10 @@
       <c r="E99" s="1">
         <v>0</v>
       </c>
-      <c r="L99" s="71" t="s">
+      <c r="L99" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="M99" s="71"/>
+      <c r="M99" s="72"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -5373,7 +5396,7 @@
       </c>
       <c r="M101" s="50">
         <f>M100/M104</f>
-        <v>0.11603971399685752</v>
+        <v>0.11657123571036306</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5397,7 +5420,7 @@
       </c>
       <c r="M102" s="53" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4764263640</v>
+        <v>4739688690</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5421,7 +5444,7 @@
       </c>
       <c r="M103" s="50">
         <f>M102/M104</f>
-        <v>0.88396028600314247</v>
+        <v>0.8834287642896369</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5445,7 +5468,7 @@
       </c>
       <c r="M104" s="54">
         <f>M100+M102</f>
-        <v>5389680640</v>
+        <v>5365105690</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5464,10 +5487,10 @@
       <c r="E105" s="11">
         <v>20178000</v>
       </c>
-      <c r="L105" s="71" t="s">
+      <c r="L105" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="M105" s="71"/>
+      <c r="M105" s="72"/>
     </row>
     <row r="106" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -5517,7 +5540,7 @@
       </c>
       <c r="M106" s="56">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.129167057612671</v>
+        <v>0.12955395783995033</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5585,7 +5608,7 @@
       <c r="I108" s="33"/>
       <c r="J108" s="44">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2459990767.4538116</v>
+        <v>2450887611.4691296</v>
       </c>
       <c r="K108" s="34" t="s">
         <v>157</v>
@@ -5616,7 +5639,7 @@
       </c>
       <c r="J109" s="44">
         <f>J108+J107</f>
-        <v>2709990767.4538116</v>
+        <v>2700887611.4691296</v>
       </c>
       <c r="K109" s="34" t="s">
         <v>153</v>
@@ -5626,14 +5649,14 @@
       </c>
       <c r="M109" s="58">
         <f>M106</f>
-        <v>0.129167057612671</v>
+        <v>0.12955395783995033</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F110" s="68" t="s">
+      <c r="F110" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="G110" s="68"/>
+      <c r="G110" s="69"/>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F111" s="62" t="s">
@@ -5641,7 +5664,7 @@
       </c>
       <c r="G111" s="53">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1423982750.6084766</v>
+        <v>1416445125.5442755</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5668,7 +5691,7 @@
       </c>
       <c r="G114" s="53">
         <f>G111+G112-G113</f>
-        <v>818743750.60847664</v>
+        <v>811206125.54427552</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5686,7 +5709,7 @@
       </c>
       <c r="G116" s="64">
         <f>G114/G115</f>
-        <v>13.346802219443083</v>
+        <v>13.22392715522251</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5695,7 +5718,7 @@
       </c>
       <c r="G117" s="65" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>29.08</v>
+        <v>28.93</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5704,7 +5727,7 @@
       </c>
       <c r="G118" s="66">
         <f>G116/G117-1</f>
-        <v>-0.5410315605418472</v>
+        <v>-0.54289916504588631</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CACF47-EA52-814A-8E32-703DABD986A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A3B570-E7E0-C749-B53A-BF754C173141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="181">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -592,9 +592,6 @@
     <t>Forward P/E</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -613,7 +610,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -745,6 +748,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -919,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -978,11 +988,6 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,8 +1004,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,56 +1013,118 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,15 +1214,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0380587834926668E-2"/>
-          <c:y val="0.15483742165622721"/>
-          <c:w val="0.85569395617776167"/>
-          <c:h val="0.6918901101857956"/>
+          <c:x val="9.6805280528052803E-2"/>
+          <c:y val="0.15115383770338744"/>
+          <c:w val="0.82266666666666666"/>
+          <c:h val="0.66219919083236289"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1206,12 +1271,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$4:$E$4</c:f>
+              <c:f>Model!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>238368000</c:v>
                 </c:pt>
@@ -1224,12 +1325,27 @@
                 <c:pt idx="3">
                   <c:v>739012000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>960000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1203000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1473000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1710000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2075000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D93-EC45-B687-E20BC5C00232}"/>
+              <c16:uniqueId val="{00000000-29E2-7541-BCBB-6E174314BFD1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,11 +1354,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$20</c:f>
+              <c:f>Model!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1280,30 +1396,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$20:$E$20</c:f>
+              <c:f>Model!$B$29:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>40491000</c:v>
+                  <c:v>28386000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25841000</c:v>
+                  <c:v>5725000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-128698000</c:v>
+                  <c:v>-121098000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60592000</c:v>
+                  <c:v>-4753000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D93-EC45-B687-E20BC5C00232}"/>
+              <c16:uniqueId val="{00000001-29E2-7541-BCBB-6E174314BFD1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1354,12 +1521,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$108:$E$108</c:f>
+              <c:f>Model!$B$108:$J$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>17237000</c:v>
                 </c:pt>
@@ -1372,12 +1575,27 @@
                 <c:pt idx="3">
                   <c:v>-127997000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>-105200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-70000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D93-EC45-B687-E20BC5C00232}"/>
+              <c16:uniqueId val="{00000002-29E2-7541-BCBB-6E174314BFD1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1389,13 +1607,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1876652559"/>
-        <c:axId val="1876654287"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1703117552"/>
+        <c:axId val="1703119824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1876652559"/>
+        <c:axId val="1703117552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1641,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1435,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876654287"/>
+        <c:crossAx val="1703119824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1443,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1876654287"/>
+        <c:axId val="1703119824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876652559"/>
+        <c:crossAx val="1703117552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,10 +1727,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33253518301942325"/>
-          <c:y val="0.89818504794321774"/>
-          <c:w val="0.36349628778559701"/>
-          <c:h val="5.2967710431544891E-2"/>
+          <c:x val="0.34336872742392349"/>
+          <c:y val="0.88195167931136975"/>
+          <c:w val="0.31326254515215302"/>
+          <c:h val="6.2854753274371664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1619,7 +1837,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1857,7 +2075,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2092,22 +2309,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF14E1B1-43F7-CAF8-89A5-B9CD4A70D9BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8264C196-3CEC-7E6E-D520-754917B713FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,38 +2352,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2302,13 +2519,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>54.18</v>
-    <v>25.451000000000001</v>
-    <v>2.298</v>
-    <v>0.44</v>
-    <v>1.5443999999999999E-2</v>
-    <v>7.0000000000000007E-2</v>
-    <v>2.4199999999999998E-3</v>
+    <v>41.439900000000002</v>
+    <v>22.664999999999999</v>
+    <v>2.2669999999999999</v>
+    <v>-0.61</v>
+    <v>-2.3452999999999998E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2316,24 +2533,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>29.26</v>
+    <v>26.43</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45132.966239363283</v>
+    <v>45218.999786654691</v>
     <v>0</v>
-    <v>28.49</v>
-    <v>4739688690</v>
+    <v>25.4</v>
+    <v>4454626600</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>28.49</v>
-    <v>28.49</v>
-    <v>28.93</v>
-    <v>29</v>
-    <v>163833000</v>
+    <v>26.1</v>
+    <v>48166.66</v>
+    <v>26.01</v>
+    <v>25.4</v>
+    <v>25.4</v>
+    <v>175379000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>612952</v>
-    <v>606220</v>
+    <v>646928</v>
+    <v>1133408</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2384,6 +2602,7 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
+    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -2403,7 +2622,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2435,6 +2654,7 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
+      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -2469,6 +2689,7 @@
     </spb>
     <spb s="3">
       <v>1</v>
+      <v>2</v>
       <v>2</v>
       <v>1</v>
       <v>3</v>
@@ -2525,6 +2746,7 @@
   </s>
   <s>
     <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -3130,13 +3352,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL119"/>
+  <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3253,19 +3475,19 @@
         <v>739012000</v>
       </c>
       <c r="F4" s="24">
-        <v>974300000</v>
+        <v>960000000</v>
       </c>
       <c r="G4" s="24">
-        <v>1243000000</v>
+        <v>1203000000</v>
       </c>
       <c r="H4" s="24">
-        <v>1542000000</v>
+        <v>1473000000</v>
       </c>
       <c r="I4" s="24">
-        <v>1817000000</v>
+        <v>1710000000</v>
       </c>
       <c r="J4" s="24">
-        <v>2139000000</v>
+        <v>2075000000</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>105</v>
@@ -3299,23 +3521,23 @@
       </c>
       <c r="F5" s="16">
         <f t="shared" ref="F5:J5" si="0">(F4/E4)-1</f>
-        <v>0.31838183953711163</v>
+        <v>0.2990316801350994</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>0.27578774504772663</v>
+        <v>0.25312500000000004</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>0.24054706355591304</v>
+        <v>0.22443890274314215</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>0.17833981841763946</v>
+        <v>0.16089613034623218</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.17721518987341778</v>
+        <v>0.21345029239766089</v>
       </c>
       <c r="K5" s="17">
         <f>(E5+D5+C5)/3</f>
@@ -3388,13 +3610,13 @@
       <c r="K7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="72" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3419,16 +3641,16 @@
         <v>0.24479999999999999</v>
       </c>
       <c r="L8" s="21">
-        <f>E22</f>
-        <v>8.2000000000000003E-2</v>
+        <f>F22</f>
+        <v>0.14583333333333334</v>
       </c>
       <c r="M8" s="21">
-        <f>E31</f>
-        <v>-6.4000000000000003E-3</v>
+        <f>F31</f>
+        <v>3.4375000000000003E-2</v>
       </c>
       <c r="N8" s="21">
-        <f>E108/E4</f>
-        <v>-0.17320016454401282</v>
+        <f>F108/F4</f>
+        <v>-0.10958333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3596,7 +3818,7 @@
         <f>E23/(E73+E57+E62)</f>
         <v>-2.9770011841899809E-3</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="36">
         <f>E68/E73</f>
         <v>3.7082261802711369</v>
       </c>
@@ -3667,17 +3889,17 @@
         <f>(E36+D36+C36)/3</f>
         <v>3.652450823189142E-2</v>
       </c>
-      <c r="L17" s="36">
-        <f>M102/E4</f>
-        <v>6.413547669050029</v>
-      </c>
-      <c r="M17" s="36">
-        <f>M102/E29</f>
-        <v>-997.19938775510207</v>
-      </c>
-      <c r="N17" s="37">
-        <f>M102/E108</f>
-        <v>-37.029685773885326</v>
+      <c r="L17" s="33">
+        <f>M103/E4</f>
+        <v>6.0278136214296927</v>
+      </c>
+      <c r="M17" s="33">
+        <f>M103/E29</f>
+        <v>-937.22419524510838</v>
+      </c>
+      <c r="N17" s="34">
+        <f>M103/E108</f>
+        <v>-34.802585998109329</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3723,7 +3945,7 @@
         <v>171</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3742,36 +3964,36 @@
       <c r="E20" s="10">
         <v>60592000</v>
       </c>
-      <c r="F20" s="35">
-        <v>127700000</v>
-      </c>
-      <c r="G20" s="35">
-        <v>179400000</v>
-      </c>
-      <c r="H20" s="35">
-        <v>226000000</v>
-      </c>
-      <c r="I20" s="35">
-        <v>284500000</v>
-      </c>
-      <c r="J20" s="35">
-        <v>348900000</v>
+      <c r="F20" s="32">
+        <v>140000000</v>
+      </c>
+      <c r="G20" s="32">
+        <v>184000000</v>
+      </c>
+      <c r="H20" s="32">
+        <v>236000000</v>
+      </c>
+      <c r="I20" s="32">
+        <v>297500000</v>
+      </c>
+      <c r="J20" s="32">
+        <v>362000000</v>
       </c>
       <c r="K20" s="26">
         <f>E41-E57-E62</f>
         <v>-605239000</v>
       </c>
-      <c r="L20" s="36">
-        <f>M102/F4</f>
-        <v>4.8647117828184339</v>
-      </c>
-      <c r="M20" s="38">
-        <f>G117/F32</f>
-        <v>62.891304347826086</v>
-      </c>
-      <c r="N20" s="37">
-        <f>M102/F107</f>
-        <v>-45.054074999999997</v>
+      <c r="L20" s="33">
+        <f>M103/F4</f>
+        <v>4.6402360416666664</v>
+      </c>
+      <c r="M20" s="35">
+        <f>G118/F32</f>
+        <v>44.561403508771932</v>
+      </c>
+      <c r="N20" s="34">
+        <f>M103/F108</f>
+        <v>-42.344359315589351</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3793,23 +4015,23 @@
       </c>
       <c r="F21" s="16">
         <f t="shared" ref="F21:J21" si="3">(F20/E20)-1</f>
-        <v>1.1075389490361762</v>
+        <v>1.310536044362292</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="3"/>
-        <v>0.40485512920908384</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="3"/>
-        <v>0.25975473801560756</v>
+        <v>0.28260869565217384</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="3"/>
-        <v>0.25884955752212391</v>
+        <v>0.26059322033898313</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="3"/>
-        <v>0.22636203866432347</v>
+        <v>0.21680672268907553</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3828,28 +4050,31 @@
       <c r="E22" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="47">
         <f>F20/F4</f>
-        <v>0.13106845940675357</v>
-      </c>
-      <c r="G22" s="68">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G22" s="47">
         <f t="shared" ref="G22:J22" si="4">G20/G4</f>
-        <v>0.14432823813354786</v>
-      </c>
-      <c r="H22" s="68">
+        <v>0.15295095594347466</v>
+      </c>
+      <c r="H22" s="47">
         <f t="shared" si="4"/>
-        <v>0.14656290531776914</v>
-      </c>
-      <c r="I22" s="68">
+        <v>0.16021724372029872</v>
+      </c>
+      <c r="I22" s="47">
         <f t="shared" si="4"/>
-        <v>0.1565767749036874</v>
-      </c>
-      <c r="J22" s="68">
+        <v>0.17397660818713451</v>
+      </c>
+      <c r="J22" s="47">
         <f t="shared" si="4"/>
-        <v>0.16311360448807855</v>
+        <v>0.17445783132530121</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>180</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>179</v>
@@ -3871,13 +4096,17 @@
       <c r="E23" s="10">
         <v>-2612000</v>
       </c>
-      <c r="M23" s="45">
-        <f>(-1*E99)/M102</f>
+      <c r="L23" s="17">
+        <f>SUM(G30:J30)/4</f>
+        <v>0.36194886735989495</v>
+      </c>
+      <c r="M23" s="40">
+        <f>(-1*E99)/M103</f>
         <v>0</v>
       </c>
-      <c r="N23" s="46">
-        <f>E108/M102</f>
-        <v>-2.7005360134739146E-2</v>
+      <c r="N23" s="41">
+        <f>F108/M103</f>
+        <v>-2.3615896335733279E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3981,20 +4210,20 @@
       <c r="E29" s="11">
         <v>-4753000</v>
       </c>
-      <c r="F29" s="40">
-        <v>27000000</v>
-      </c>
-      <c r="G29" s="40">
-        <v>49000000</v>
-      </c>
-      <c r="H29" s="40">
-        <v>62000000</v>
-      </c>
-      <c r="I29" s="40">
-        <v>92000000</v>
-      </c>
-      <c r="J29" s="40">
-        <v>118000000</v>
+      <c r="F29" s="37">
+        <v>33000000</v>
+      </c>
+      <c r="G29" s="37">
+        <v>47000000</v>
+      </c>
+      <c r="H29" s="37">
+        <v>67000000</v>
+      </c>
+      <c r="I29" s="37">
+        <v>89000000</v>
+      </c>
+      <c r="J29" s="37">
+        <v>113000000</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4016,23 +4245,23 @@
       </c>
       <c r="F30" s="16">
         <f t="shared" ref="F30:J30" si="5">(F29/E29)-1</f>
-        <v>-6.6806227645697458</v>
+        <v>-7.9429833789185773</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="5"/>
-        <v>0.81481481481481488</v>
+        <v>0.42424242424242431</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="5"/>
-        <v>0.26530612244897966</v>
+        <v>0.42553191489361697</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="5"/>
-        <v>0.4838709677419355</v>
+        <v>0.32835820895522394</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="5"/>
-        <v>0.28260869565217384</v>
+        <v>0.2696629213483146</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4051,25 +4280,25 @@
       <c r="E31" s="2">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="39">
         <f>F29/F4</f>
-        <v>2.771220363337781E-2</v>
-      </c>
-      <c r="G31" s="42">
+        <v>3.4375000000000003E-2</v>
+      </c>
+      <c r="G31" s="39">
         <f t="shared" ref="G31:J31" si="6">G29/G4</f>
-        <v>3.9420756234915526E-2</v>
-      </c>
-      <c r="H31" s="42">
+        <v>3.906899418121363E-2</v>
+      </c>
+      <c r="H31" s="39">
         <f t="shared" si="6"/>
-        <v>4.0207522697795074E-2</v>
-      </c>
-      <c r="I31" s="42">
+        <v>4.5485403937542433E-2</v>
+      </c>
+      <c r="I31" s="39">
         <f t="shared" si="6"/>
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="J31" s="42">
+        <v>5.2046783625730994E-2</v>
+      </c>
+      <c r="J31" s="39">
         <f t="shared" si="6"/>
-        <v>5.5165965404394578E-2</v>
+        <v>5.4457831325301208E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4088,23 +4317,23 @@
       <c r="E32" s="12">
         <v>-0.09</v>
       </c>
-      <c r="F32" s="41">
-        <v>0.46</v>
-      </c>
-      <c r="G32" s="41">
-        <v>0.85</v>
-      </c>
-      <c r="H32" s="41">
-        <v>1.07</v>
-      </c>
-      <c r="I32" s="41">
-        <v>1.59</v>
-      </c>
-      <c r="J32" s="41">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F32" s="38">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0.81</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I32" s="38">
+        <v>1.53</v>
+      </c>
+      <c r="J32" s="38">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
@@ -4121,7 +4350,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
@@ -4137,8 +4366,12 @@
       <c r="E34" s="1">
         <v>51871000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>175379000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
@@ -4154,8 +4387,12 @@
       <c r="E35" s="1">
         <v>51871000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" cm="1">
+        <f t="array" ref="F35">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>175379000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -4165,15 +4402,19 @@
         <v>0</v>
       </c>
       <c r="D36" s="22">
-        <f t="shared" ref="D36:E36" si="7">(D35-C35)/C35</f>
+        <f t="shared" ref="D36:F36" si="7">(D35-C35)/C35</f>
         <v>0</v>
       </c>
       <c r="E36" s="22">
         <f t="shared" si="7"/>
         <v>0.10957352469567426</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F36" s="22">
+        <f t="shared" si="7"/>
+        <v>2.3810607082955793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>28</v>
       </c>
@@ -4190,7 +4431,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -4207,7 +4448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
@@ -4224,7 +4465,7 @@
         <v>20178000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>31</v>
       </c>
@@ -4241,7 +4482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
@@ -4258,7 +4499,7 @@
         <v>20178000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -4275,7 +4516,7 @@
         <v>11966000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -4292,7 +4533,7 @@
         <v>39229000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
@@ -4309,7 +4550,7 @@
         <v>31127000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -4326,7 +4567,7 @@
         <v>82322000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -4343,7 +4584,7 @@
         <v>782713000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
@@ -4360,7 +4601,7 @@
         <v>21629000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
@@ -4976,7 +5217,7 @@
         <v>-1322000</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
@@ -4992,12 +5233,8 @@
       <c r="E84" s="1">
         <v>-15817000</v>
       </c>
-      <c r="L84" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="M84" s="71"/>
-    </row>
-    <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
@@ -5013,12 +5250,18 @@
       <c r="E85" s="1">
         <v>1606000</v>
       </c>
-      <c r="L85" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="M85" s="72"/>
-    </row>
-    <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="M85" s="78"/>
+    </row>
+    <row r="86" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
@@ -5034,13 +5277,16 @@
       <c r="E86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L86" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="M86" s="48">
-        <f>E18</f>
-        <v>18018000</v>
-      </c>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="M86" s="79"/>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -5058,12 +5304,18 @@
       <c r="E87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L87" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="M87" s="48">
-        <f>E57</f>
-        <v>130762000</v>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="M87" s="50">
+        <f>E18</f>
+        <v>18018000</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5082,12 +5334,18 @@
       <c r="E88" s="10">
         <v>59883000</v>
       </c>
-      <c r="L88" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M88" s="48">
-        <f>E62</f>
-        <v>494655000</v>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="M88" s="50">
+        <f>E57</f>
+        <v>130762000</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5106,12 +5364,18 @@
       <c r="E89" s="1">
         <v>-187880000</v>
       </c>
-      <c r="L89" s="49" t="s">
-        <v>139</v>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="M89" s="50">
-        <f>M86/(M87+M88)</f>
-        <v>2.8809578249392006E-2</v>
+        <f>E62</f>
+        <v>494655000</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,12 +5398,18 @@
         <f t="shared" si="9"/>
         <v>0.25423132506644008</v>
       </c>
-      <c r="L90" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="M90" s="48">
-        <f>E28</f>
-        <v>2599000</v>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="M90" s="51">
+        <f>M87/(M88+M89)</f>
+        <v>2.8809578249392006E-2</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5158,12 +5428,18 @@
       <c r="E91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L91" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="M91" s="48">
-        <f>E26</f>
-        <v>-16654000</v>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="M91" s="50">
+        <f>E28</f>
+        <v>2599000</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5182,12 +5458,18 @@
       <c r="E92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L92" s="49" t="s">
-        <v>141</v>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="M92" s="50">
-        <f>M90/M91</f>
-        <v>-0.15605860453944997</v>
+        <f>E26</f>
+        <v>-16654000</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5206,15 +5488,21 @@
       <c r="E93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L93" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="M93" s="50">
-        <f>M89*(1-M92)</f>
-        <v>3.330556082836221E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="M93" s="51">
+        <f>M91/M92</f>
+        <v>-0.15605860453944997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
@@ -5230,12 +5518,21 @@
       <c r="E94" s="1">
         <v>-4692000</v>
       </c>
-      <c r="L94" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="M94" s="72"/>
-    </row>
-    <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="M94" s="51">
+        <f>M90*(1-M93)</f>
+        <v>3.330556082836221E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
@@ -5251,13 +5548,16 @@
       <c r="E95" s="10">
         <v>-192572000</v>
       </c>
-      <c r="L95" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="M95" s="51">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="M95" s="79"/>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -5275,12 +5575,18 @@
       <c r="E96" s="1">
         <v>-10569000</v>
       </c>
-      <c r="L96" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="M96" s="52" cm="1">
-        <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.298</v>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M96" s="73">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5299,11 +5605,18 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="M97" s="51">
-        <v>8.4000000000000005E-2</v>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M97" s="53" cm="1">
+        <f t="array" ref="M97">_FV(A1,"Beta")</f>
+        <v>2.2669999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5322,15 +5635,20 @@
       <c r="E98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L98" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="M98" s="50">
-        <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.14225424000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M98" s="52">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
@@ -5346,12 +5664,21 @@
       <c r="E99" s="1">
         <v>0</v>
       </c>
-      <c r="L99" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="M99" s="72"/>
-    </row>
-    <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="M99" s="51">
+        <f>(M96)+((M97)*(M98-M96))</f>
+        <v>0.12831966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
@@ -5367,13 +5694,16 @@
       <c r="E100" s="1">
         <v>144930000</v>
       </c>
-      <c r="L100" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="M100" s="48">
-        <f>M87+M88</f>
-        <v>625417000</v>
-      </c>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="M100" s="79"/>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
@@ -5391,12 +5721,18 @@
       <c r="E101" s="10">
         <v>134361000</v>
       </c>
-      <c r="L101" s="49" t="s">
-        <v>150</v>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="M101" s="50">
-        <f>M100/M104</f>
-        <v>0.11657123571036306</v>
+        <f>M88+M89</f>
+        <v>625417000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5415,12 +5751,18 @@
       <c r="E102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L102" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="M102" s="53" cm="1">
-        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4739688690</v>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="M102" s="51">
+        <f>M101/M105</f>
+        <v>0.12311252604209932</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5439,12 +5781,18 @@
       <c r="E103" s="10">
         <v>1672000</v>
       </c>
-      <c r="L103" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="M103" s="50">
-        <f>M102/M104</f>
-        <v>0.8834287642896369</v>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="M103" s="54" cm="1">
+        <f t="array" ref="M103">_FV(A1,"Market cap",TRUE)</f>
+        <v>4454626600</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5463,15 +5811,21 @@
       <c r="E104" s="1">
         <v>18506000</v>
       </c>
-      <c r="L104" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="M104" s="54">
-        <f>M100+M102</f>
-        <v>5365105690</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M104" s="51">
+        <f>M103/M105</f>
+        <v>0.87688747395790068</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
@@ -5487,14 +5841,25 @@
       <c r="E105" s="11">
         <v>20178000</v>
       </c>
-      <c r="L105" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="M105" s="72"/>
-    </row>
-    <row r="106" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="81"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="M105" s="56">
+        <f>M101+M103</f>
+        <v>5080043600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" ref="B106:C106" si="10">(B23*(1-0.2))+B78+B89+B82</f>
@@ -5512,83 +5877,86 @@
         <f>(E23*(1-0.2))+E78+E89+E82</f>
         <v>-153568600</v>
       </c>
-      <c r="F106" s="32">
-        <f>E106*(1+$M$107)</f>
-        <v>-190126270.37958276</v>
-      </c>
-      <c r="G106" s="32">
-        <f t="shared" ref="G106:J106" si="11">F106*(1+$M$107)</f>
-        <v>-235386652.53476432</v>
-      </c>
-      <c r="H106" s="32">
-        <f t="shared" si="11"/>
-        <v>-291421464.69766283</v>
-      </c>
-      <c r="I106" s="32">
-        <f t="shared" si="11"/>
-        <v>-360795606.59875703</v>
-      </c>
-      <c r="J106" s="32">
-        <f t="shared" si="11"/>
-        <v>-446684563.45868134</v>
-      </c>
-      <c r="K106" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="L106" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="M106" s="56">
-        <f>(M101*M93)+(M103*M98)</f>
-        <v>0.12955395783995033</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F106" s="74">
+        <f>F108/F4</f>
+        <v>-0.10958333333333334</v>
+      </c>
+      <c r="G106" s="74">
+        <f>G108/G4</f>
+        <v>-5.8187863674147966E-2</v>
+      </c>
+      <c r="H106" s="74">
+        <f>H108/H4</f>
+        <v>4.0733197556008148E-2</v>
+      </c>
+      <c r="I106" s="74">
+        <f>I108/I4</f>
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="J106" s="74">
+        <f>J108/J4</f>
+        <v>0.12048192771084337</v>
+      </c>
+      <c r="K106" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="L106" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="M106" s="79"/>
+    </row>
+    <row r="107" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="15">
-        <f>(C108/B108)-1</f>
+        <f t="shared" ref="C107:J107" si="11">(C108/B108)-1</f>
         <v>-0.24731681847189191</v>
       </c>
       <c r="D107" s="15">
-        <f>(D108/C108)-1</f>
+        <f t="shared" si="11"/>
         <v>5.1950824726375826</v>
       </c>
       <c r="E107" s="15">
-        <f>(E108/D108)-1</f>
+        <f t="shared" si="11"/>
         <v>-2.5924976671850697</v>
       </c>
-      <c r="F107" s="43">
-        <v>-105200000</v>
-      </c>
-      <c r="G107" s="43">
-        <v>-70000000</v>
-      </c>
-      <c r="H107" s="43">
-        <v>5000000</v>
-      </c>
-      <c r="I107" s="43">
-        <v>150000000</v>
-      </c>
-      <c r="J107" s="43">
-        <v>250000000</v>
-      </c>
-      <c r="K107" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="L107" s="57" t="s">
-        <v>156</v>
+      <c r="F107" s="57">
+        <f t="shared" si="11"/>
+        <v>-0.17810573685320752</v>
+      </c>
+      <c r="G107" s="57">
+        <f t="shared" si="11"/>
+        <v>-0.33460076045627374</v>
+      </c>
+      <c r="H107" s="57">
+        <f t="shared" si="11"/>
+        <v>-1.8571428571428572</v>
+      </c>
+      <c r="I107" s="57">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="J107" s="57">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="K107" s="71">
+        <f>SUM(F107:J107)/5</f>
+        <v>-4.0636537557134346E-2</v>
+      </c>
+      <c r="L107" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="M107" s="58">
-        <f>(SUM(F5:J5)/5)</f>
-        <v>0.23805433128636172</v>
+        <f>(M102*M94)+(M104*M99)</f>
+        <v>0.11662223424136513</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B108" s="1">
         <v>17237000</v>
@@ -5602,151 +5970,239 @@
       <c r="E108" s="1">
         <v>-127997000</v>
       </c>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="44">
-        <f>J107*(1+M108)/(M109-M108)</f>
-        <v>2450887611.4691296</v>
-      </c>
-      <c r="K108" s="34" t="s">
+      <c r="F108" s="59">
+        <v>-105200000</v>
+      </c>
+      <c r="G108" s="59">
+        <v>-70000000</v>
+      </c>
+      <c r="H108" s="59">
+        <v>60000000</v>
+      </c>
+      <c r="I108" s="59">
+        <v>150000000</v>
+      </c>
+      <c r="J108" s="59">
+        <v>250000000</v>
+      </c>
+      <c r="K108" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="L108" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="M108" s="45">
+        <f>(SUM(F5:J5)/5)</f>
+        <v>0.23018840112442693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="61">
+        <f>J108*(1+M109)/(M110-M109)</f>
+        <v>2796810207.9343266</v>
+      </c>
+      <c r="K109" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="L108" s="59" t="s">
+      <c r="L109" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="M108" s="60">
+      <c r="M109" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="44">
-        <f t="shared" ref="F109:I109" si="12">F108+F107</f>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F110" s="61">
+        <f t="shared" ref="F110:I110" si="12">F109+F108</f>
         <v>-105200000</v>
       </c>
-      <c r="G109" s="44">
+      <c r="G110" s="61">
         <f t="shared" si="12"/>
         <v>-70000000</v>
       </c>
-      <c r="H109" s="44">
+      <c r="H110" s="61">
         <f t="shared" si="12"/>
-        <v>5000000</v>
-      </c>
-      <c r="I109" s="44">
+        <v>60000000</v>
+      </c>
+      <c r="I110" s="61">
         <f t="shared" si="12"/>
         <v>150000000</v>
       </c>
-      <c r="J109" s="44">
-        <f>J108+J107</f>
-        <v>2700887611.4691296</v>
-      </c>
-      <c r="K109" s="34" t="s">
+      <c r="J110" s="61">
+        <f>J109+J108</f>
+        <v>3046810207.9343266</v>
+      </c>
+      <c r="K110" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="L109" s="61" t="s">
+      <c r="L110" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="M109" s="58">
-        <f>M106</f>
-        <v>0.12955395783995033</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F110" s="69" t="s">
+      <c r="M110" s="45">
+        <f>M107</f>
+        <v>0.11662223424136513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F111" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="G110" s="69"/>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="62" t="s">
+      <c r="G111" s="80"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F112" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="G111" s="53">
-        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>1416445125.5442755</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="62" t="s">
+      <c r="G112" s="54">
+        <f>NPV(M110,F110,G110,H110,I110,J110)</f>
+        <v>1744376791.0656013</v>
+      </c>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+    </row>
+    <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F113" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="G112" s="53">
+      <c r="G113" s="54">
         <f>E41</f>
         <v>20178000</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="62" t="s">
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+    </row>
+    <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F114" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="G113" s="53">
-        <f>M100</f>
+      <c r="G114" s="54">
+        <f>M101</f>
         <v>625417000</v>
       </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="62" t="s">
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+    </row>
+    <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F115" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="53">
-        <f>G111+G112-G113</f>
-        <v>811206125.54427552</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="62" t="s">
+      <c r="G115" s="54">
+        <f>G112+G113-G114</f>
+        <v>1139137791.0656013</v>
+      </c>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+    </row>
+    <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F116" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="G115" s="62">
+      <c r="G116" s="65">
         <f>E35*(1+(5*K17))</f>
         <v>61343813.832482196</v>
       </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="63" t="s">
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+    </row>
+    <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F117" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="G116" s="64">
-        <f>G114/G115</f>
-        <v>13.22392715522251</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="62" t="s">
+      <c r="G117" s="67">
+        <f>G115/G116</f>
+        <v>18.569725615305906</v>
+      </c>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+    </row>
+    <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F118" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="G117" s="65" cm="1">
-        <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>28.93</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="63" t="s">
+      <c r="G118" s="68" cm="1">
+        <f t="array" ref="G118">_FV(A1,"Price")</f>
+        <v>25.4</v>
+      </c>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+    </row>
+    <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F119" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="G118" s="66">
-        <f>G116/G117-1</f>
-        <v>-0.54289916504588631</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F119" s="63" t="s">
+      <c r="G119" s="69">
+        <f>G117/G118-1</f>
+        <v>-0.26890844034228711</v>
+      </c>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+    </row>
+    <row r="120" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F120" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="G119" s="67" t="str">
-        <f>IF(G116&gt;G117,"BUY","SELL")</f>
+      <c r="G120" s="70" t="str">
+        <f>IF(G117&gt;G118,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="49"/>
+      <c r="L120" s="49"/>
+      <c r="M120" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="L84:M84"/>
+  <mergeCells count="7">
     <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="L95:M95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/BROS" display="ROIC.AI | BROS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5759,7 +6215,7 @@
     <hyperlink ref="E37" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1866581/000186658123000038/0001866581-23-000038-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E75" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1866581/000186658123000038/0001866581-23-000038-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NYSE:BROS/explorer/revenue_proj" xr:uid="{51C8C0CC-E610-A442-87D2-8C2AB36CDA6A}"/>
-    <hyperlink ref="K107" r:id="rId11" xr:uid="{8B5863B4-CC3F-994A-A54F-26EA50952A3A}"/>
+    <hyperlink ref="K108" r:id="rId11" xr:uid="{8B5863B4-CC3F-994A-A54F-26EA50952A3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId12"/>

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A3B570-E7E0-C749-B53A-BF754C173141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABA9BE-DD86-DF4F-A3DF-A91B7607D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2355,13 +2355,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2377,14 +2379,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2394,6 +2396,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2521,11 +2525,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.439900000000002</v>
     <v>22.664999999999999</v>
-    <v>2.2669999999999999</v>
-    <v>-0.61</v>
-    <v>-2.3452999999999998E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>2.2690000000000001</v>
+    <v>0.17</v>
+    <v>6.9160000000000003E-3</v>
+    <v>0.22</v>
+    <v>8.8890000000000011E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -2533,25 +2537,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>26.43</v>
+    <v>25.54</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45218.999786654691</v>
+    <v>45226.989344339847</v>
     <v>0</v>
-    <v>25.4</v>
-    <v>4454626600</v>
+    <v>24.66</v>
+    <v>4340630000</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>26.1</v>
-    <v>48166.66</v>
-    <v>26.01</v>
-    <v>25.4</v>
-    <v>25.4</v>
+    <v>24.8</v>
+    <v>45833.33</v>
+    <v>24.58</v>
+    <v>24.75</v>
+    <v>24.97</v>
     <v>175379000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>646928</v>
-    <v>1133408</v>
+    <v>500494</v>
+    <v>1013574</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2716,9 +2720,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3355,10 +3359,10 @@
   <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3891,15 +3895,15 @@
       </c>
       <c r="L17" s="33">
         <f>M103/E4</f>
-        <v>6.0278136214296927</v>
+        <v>5.8735582101508497</v>
       </c>
       <c r="M17" s="33">
         <f>M103/E29</f>
-        <v>-937.22419524510838</v>
+        <v>-913.24005891016202</v>
       </c>
       <c r="N17" s="34">
         <f>M103/E108</f>
-        <v>-34.802585998109329</v>
+        <v>-33.911966686719218</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3985,15 +3989,15 @@
       </c>
       <c r="L20" s="33">
         <f>M103/F4</f>
-        <v>4.6402360416666664</v>
+        <v>4.5214895833333335</v>
       </c>
       <c r="M20" s="35">
         <f>G118/F32</f>
-        <v>44.561403508771932</v>
+        <v>43.421052631578952</v>
       </c>
       <c r="N20" s="34">
         <f>M103/F108</f>
-        <v>-42.344359315589351</v>
+        <v>-41.260741444866923</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,7 +4110,7 @@
       </c>
       <c r="N23" s="41">
         <f>F108/M103</f>
-        <v>-2.3615896335733279E-2</v>
+        <v>-2.4236113190942328E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5586,7 +5590,7 @@
       </c>
       <c r="M96" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5616,7 +5620,7 @@
       </c>
       <c r="M97" s="53" cm="1">
         <f t="array" ref="M97">_FV(A1,"Beta")</f>
-        <v>2.2669999999999999</v>
+        <v>2.2690000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5675,7 +5679,7 @@
       </c>
       <c r="M99" s="51">
         <f>(M96)+((M97)*(M98-M96))</f>
-        <v>0.12831966</v>
+        <v>0.12911295</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5762,7 +5766,7 @@
       </c>
       <c r="M102" s="51">
         <f>M101/M105</f>
-        <v>0.12311252604209932</v>
+        <v>0.12593859864797896</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5792,7 +5796,7 @@
       </c>
       <c r="M103" s="54" cm="1">
         <f t="array" ref="M103">_FV(A1,"Market cap",TRUE)</f>
-        <v>4454626600</v>
+        <v>4340630000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5822,7 +5826,7 @@
       </c>
       <c r="M104" s="51">
         <f>M103/M105</f>
-        <v>0.87688747395790068</v>
+        <v>0.87406140135202104</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5854,7 +5858,7 @@
       </c>
       <c r="M105" s="56">
         <f>M101+M103</f>
-        <v>5080043600</v>
+        <v>4966047000</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5951,7 +5955,7 @@
       </c>
       <c r="M107" s="58">
         <f>(M102*M94)+(M104*M99)</f>
-        <v>0.11662223424136513</v>
+        <v>0.11704710166760239</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -6003,7 +6007,7 @@
       <c r="I109" s="76"/>
       <c r="J109" s="61">
         <f>J108*(1+M109)/(M110-M109)</f>
-        <v>2796810207.9343266</v>
+        <v>2783900800.3246202</v>
       </c>
       <c r="K109" s="62" t="s">
         <v>157</v>
@@ -6034,7 +6038,7 @@
       </c>
       <c r="J110" s="61">
         <f>J109+J108</f>
-        <v>3046810207.9343266</v>
+        <v>3033900800.3246202</v>
       </c>
       <c r="K110" s="62" t="s">
         <v>153</v>
@@ -6044,7 +6048,7 @@
       </c>
       <c r="M110" s="45">
         <f>M107</f>
-        <v>0.11662223424136513</v>
+        <v>0.11704710166760239</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -6065,7 +6069,7 @@
       </c>
       <c r="G112" s="54">
         <f>NPV(M110,F110,G110,H110,I110,J110)</f>
-        <v>1744376791.0656013</v>
+        <v>1733501674.9534099</v>
       </c>
       <c r="H112" s="49"/>
       <c r="I112" s="49"/>
@@ -6110,7 +6114,7 @@
       </c>
       <c r="G115" s="54">
         <f>G112+G113-G114</f>
-        <v>1139137791.0656013</v>
+        <v>1128262674.9534099</v>
       </c>
       <c r="H115" s="49"/>
       <c r="I115" s="49"/>
@@ -6140,7 +6144,7 @@
       </c>
       <c r="G117" s="67">
         <f>G115/G116</f>
-        <v>18.569725615305906</v>
+        <v>18.392444232999139</v>
       </c>
       <c r="H117" s="49"/>
       <c r="I117" s="49"/>
@@ -6155,7 +6159,7 @@
       </c>
       <c r="G118" s="68" cm="1">
         <f t="array" ref="G118">_FV(A1,"Price")</f>
-        <v>25.4</v>
+        <v>24.75</v>
       </c>
       <c r="H118" s="49"/>
       <c r="I118" s="49"/>
@@ -6170,7 +6174,7 @@
       </c>
       <c r="G119" s="69">
         <f>G117/G118-1</f>
-        <v>-0.26890844034228711</v>
+        <v>-0.25687094008084288</v>
       </c>
       <c r="H119" s="49"/>
       <c r="I119" s="49"/>

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954EC11-74D9-CA45-8DE1-8C7E4CABC9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CD1F8D-5530-834F-A796-E45D9455D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1690,11 +1690,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.439900000000002</v>
     <v>22.664999999999999</v>
-    <v>2.2309999999999999</v>
-    <v>0.53</v>
-    <v>2.0416E-2</v>
-    <v>0.08</v>
-    <v>3.0200000000000001E-3</v>
+    <v>2.206</v>
+    <v>0.28999999999999998</v>
+    <v>1.0789E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-5.1580000000000003E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -1702,25 +1702,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>26.59</v>
+    <v>28.02</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45233.999769860937</v>
+    <v>45239.97338913125</v>
     <v>0</v>
-    <v>25.97</v>
-    <v>4645790000</v>
+    <v>26.8</v>
+    <v>4765047430</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>26.05</v>
-    <v>48074.07</v>
-    <v>25.96</v>
-    <v>26.49</v>
-    <v>26.57</v>
+    <v>27.12</v>
+    <v>692.96209999999996</v>
+    <v>26.88</v>
+    <v>27.17</v>
+    <v>27</v>
     <v>175379000</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>858060</v>
-    <v>977924</v>
+    <v>1834128</v>
+    <v>1079255</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -1885,9 +1885,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8571,7 +8571,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8620,7 +8620,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4645790000</v>
+        <v>4765047430</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>192</v>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>2643436542.5075135</v>
+        <v>2623881530.292922</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>196</v>
@@ -8698,14 +8698,14 @@
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>1935464414.0465117</v>
+        <v>1918690585.2759707</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="54" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.0416E-2</v>
+        <v>1.0789E-2</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>242</v>
@@ -8748,14 +8748,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>1176039414.0465117</v>
+        <v>1159265585.2759707</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="104" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>26.49</v>
+        <v>27.17</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>210</v>
@@ -8773,7 +8773,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <f>O20/F10</f>
-        <v>4.8596129707112974</v>
+        <v>4.9843592364016738</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>212</v>
@@ -8801,14 +8801,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>0.11030562257647197</v>
+        <v>0.11094138012581148</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>5.4487610510275877</v>
+        <v>5.3710454712690376</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>216</v>
@@ -8826,14 +8826,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>132.73685714285713</v>
+        <v>136.14421228571427</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="61">
         <f>F14/A3</f>
-        <v>7.5337025565081501E-3</v>
+        <v>7.345152490958521E-3</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>219</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="K7" s="68">
         <f>K6/K5-1</f>
-        <v>-0.79430875609559881</v>
+        <v>-0.80231706031398464</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>222</v>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="O14" s="87">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="41"/>
     </row>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="O15" s="91" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2309999999999999</v>
+        <v>2.206</v>
       </c>
       <c r="P15" s="41"/>
     </row>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12992861</v>
+        <v>0.13017774000000001</v>
       </c>
       <c r="P17" s="41"/>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="O20" s="100">
         <f>A3</f>
-        <v>4645790000</v>
+        <v>4765047430</v>
       </c>
       <c r="P20" s="41"/>
     </row>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>5428932000</v>
+        <v>5548189430</v>
       </c>
       <c r="P21" s="41"/>
     </row>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>0.14425341853609513</v>
+        <v>0.14115271475148605</v>
       </c>
       <c r="P22" s="41"/>
     </row>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.85574658146390492</v>
+        <v>0.85884728524851395</v>
       </c>
       <c r="P23" s="41"/>
     </row>
@@ -9455,7 +9455,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11030562257647197</v>
+        <v>0.11094138012581148</v>
       </c>
       <c r="O25" s="109"/>
       <c r="P25" s="41"/>

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CD1F8D-5530-834F-A796-E45D9455D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524C6FD-39B0-A543-A5B7-A5FC4B8BA87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="243">
   <si>
     <t>2019 Y</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Weight of Debt + Equity Calculation</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Debt + Market Cap</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -959,6 +959,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1042,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1087,68 +1093,86 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -1156,21 +1180,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,7 +1199,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1188,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,252 +1411,264 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,6 +1706,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1551,7 +1724,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1563,6 +1736,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1690,11 +1864,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.439900000000002</v>
     <v>22.664999999999999</v>
-    <v>2.206</v>
-    <v>0.28999999999999998</v>
-    <v>1.0789E-2</v>
-    <v>-0.14000000000000001</v>
-    <v>-5.1580000000000003E-3</v>
+    <v>2.1779999999999999</v>
+    <v>1.5649999999999999</v>
+    <v>5.8548000000000003E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -1702,25 +1876,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.02</v>
+    <v>28.44</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45239.97338913125</v>
+    <v>45262.025207001563</v>
     <v>0</v>
-    <v>26.8</v>
-    <v>4765047430</v>
+    <v>26.85</v>
+    <v>5011480243</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>27.12</v>
-    <v>692.96209999999996</v>
-    <v>26.88</v>
-    <v>27.17</v>
-    <v>27</v>
-    <v>175379000</v>
+    <v>27.1</v>
+    <v>689.0951</v>
+    <v>26.73</v>
+    <v>28.295000000000002</v>
+    <v>28.3</v>
+    <v>177115400</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>1834128</v>
-    <v>1079255</v>
+    <v>2371941</v>
+    <v>1403605</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2332,9 +2506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B130" sqref="B130"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8571,7 +8745,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8579,1733 +8753,1790 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="e" vm="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+    </row>
+    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4765047430</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>5011480243</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="67">
         <f>Financials!F8*0.01</f>
         <v>0.26179999999999998</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="67">
         <f>SUM(C11:E11)/3</f>
         <v>0.45950883205760507</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(Financials!B129:F129)</f>
-        <v>4.6136783185578123E-2</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="69">
+        <f>AVERAGE(Financials!E129:J129)</f>
+        <v>2.7381752694923562E-2</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>2623881530.292922</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="70">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>3517041946.9146743</v>
+      </c>
+      <c r="J3" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="103">
+      <c r="K3" s="72">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="74">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>-759425000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <f>Financials!F17*0.01</f>
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>-1.6370636963328966</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
-        <v>215836114.49151751</v>
-      </c>
-      <c r="H4" s="47" t="s">
+        <v>201364050.40631232</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>1918690585.2759707</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>2482158968.2725301</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.0789E-2</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="114" t="s">
+        <v>5.8548000000000003E-2</v>
+      </c>
+      <c r="L4" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>175379000</v>
-      </c>
-      <c r="B5" s="43" t="s">
+        <v>177115400</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="49">
-        <f>Financials!F34*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>4.7767393561786088E-2</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="44">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>-0.384724000451929</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="77">
         <f>Financials!F56</f>
         <v>23717000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>1159265585.2759707</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>1722733968.2725301</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="104" cm="1">
+      <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>27.17</v>
-      </c>
-      <c r="L5" s="43" t="s">
+        <v>28.295000000000002</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="50" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="97">
         <f>Financials!F20</f>
         <v>28877000</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>4.9843592364016738</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>5.2040293281412255</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="44">
-        <f>Financials!F190</f>
-        <v>-0.14404705994778327</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>4.1536863966770511E-2</v>
+      </c>
+      <c r="D6" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f>Financials!F33/Financials!F126</f>
         <v>3.7026751828195872E-5</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="77">
         <f>Financials!F96+Financials!F105</f>
         <v>783142000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="78">
         <f>N25</f>
-        <v>0.11094138012581148</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>0.11388861853758961</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>5.3710454712690376</v>
-      </c>
-      <c r="L6" s="56" t="s">
+        <v>8.555320400023728</v>
+      </c>
+      <c r="L6" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="57" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="97">
         <f>Financials!F96</f>
         <v>203807000</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>136.14421228571427</v>
-      </c>
-      <c r="B7" s="60" t="s">
+        <v>108.94522267391304</v>
+      </c>
+      <c r="B7" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="61">
-        <f>F14/A3</f>
-        <v>7.345152490958521E-3</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="88">
+        <f>F15/A3</f>
+        <v>7.9816736893000267E-3</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="89">
         <f>(Financials!F16*(1-0.25))/(Financials!F126+Financials!F105+Financials!F96)</f>
         <v>2.0147557435932006E-2</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="90">
         <f>(Financials!F96+Financials!F105)/Financials!F126</f>
         <v>2.8997204480236971</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="92">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>-0.80231706031398464</v>
-      </c>
-      <c r="L7" s="69" t="s">
+        <v>-0.69763843788571389</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="97">
         <f>Financials!F105</f>
         <v>579335000</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="71" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="99">
         <f>O5/(O6+O7)</f>
         <v>3.6873261809480272E-2</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46">
         <v>2019</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="46">
         <v>2020</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="46">
         <v>2021</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="47">
         <v>2022</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="48">
         <v>2023</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="49">
         <v>2024</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="49">
         <v>2025</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="49">
         <v>2026</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="50">
         <v>2027</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="97">
         <f>Financials!F25</f>
         <v>6359000</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="52">
         <v>238368000</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="52">
         <v>327413000</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="52">
         <v>497876000</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="53">
         <v>739012000</v>
       </c>
-      <c r="F10" s="81">
-        <v>956000000</v>
-      </c>
-      <c r="G10" s="80">
-        <v>1203000000</v>
-      </c>
-      <c r="H10" s="80">
-        <v>1469000000</v>
-      </c>
-      <c r="I10" s="80">
-        <v>1704000000</v>
-      </c>
-      <c r="J10" s="80">
-        <v>1958000000</v>
-      </c>
-      <c r="K10" s="82" t="s">
+      <c r="F10" s="52">
+        <v>963000000</v>
+      </c>
+      <c r="G10" s="52">
+        <v>1205000000</v>
+      </c>
+      <c r="H10" s="52">
+        <v>1466000000</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1724000000</v>
+      </c>
+      <c r="J10" s="53">
+        <v>1966000000</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="38"/>
+      <c r="N10" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="97">
         <f>Financials!F24</f>
         <v>5456000</v>
       </c>
-      <c r="P10" s="41"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84">
+      <c r="A11" s="55"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.37356104846288085</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>0.52063601628524214</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.4843294314246922</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
-        <v>0.29361904813453643</v>
-      </c>
-      <c r="G11" s="84">
+        <v>0.30309115413552146</v>
+      </c>
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
-        <v>0.25836820083681999</v>
-      </c>
-      <c r="H11" s="84">
+        <v>0.25129802699896153</v>
+      </c>
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
-        <v>0.22111388196176218</v>
-      </c>
-      <c r="I11" s="84">
+        <v>0.21659751037344388</v>
+      </c>
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
-        <v>0.15997277059223958</v>
-      </c>
-      <c r="J11" s="84">
+        <v>0.17598908594815832</v>
+      </c>
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
-        <v>0.14906103286384975</v>
-      </c>
-      <c r="K11" s="86">
+        <v>0.1403712296983759</v>
+      </c>
+      <c r="K11" s="56">
         <f>SUM(F11:J11)/5</f>
-        <v>0.21642698687784159</v>
-      </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="57" t="s">
+        <v>0.21746940143089222</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="100">
         <f>O9/O10</f>
         <v>1.1655058651026393</v>
       </c>
-      <c r="P11" s="41"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="52">
         <v>28386000</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="52">
         <v>5725000</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="52">
         <v>-14035000</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="52">
         <v>-4753000</v>
       </c>
-      <c r="F12" s="81">
-        <v>35000000</v>
-      </c>
-      <c r="G12" s="80">
-        <v>52000000</v>
-      </c>
-      <c r="H12" s="80">
-        <v>72000000</v>
-      </c>
-      <c r="I12" s="80">
-        <v>90000000</v>
-      </c>
-      <c r="J12" s="80">
-        <v>110000000</v>
-      </c>
-      <c r="K12" s="82" t="s">
+      <c r="F12" s="57">
+        <v>46000000</v>
+      </c>
+      <c r="G12" s="52">
+        <v>60000000</v>
+      </c>
+      <c r="H12" s="52">
+        <v>86000000</v>
+      </c>
+      <c r="I12" s="52">
+        <v>111000000</v>
+      </c>
+      <c r="J12" s="53">
+        <v>118000000</v>
+      </c>
+      <c r="K12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="88" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="100">
         <f>O8*(1-O11)</f>
         <v>-6.1027410949341439E-3</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84">
+      <c r="A13" s="55"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.79831607130275484</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>-3.4515283842794759</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="39">
         <f t="shared" si="1"/>
         <v>-0.66134663341645883</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
-        <v>-8.3637702503681872</v>
-      </c>
-      <c r="G13" s="84">
+        <v>-10.678098043341048</v>
+      </c>
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
-        <v>0.48571428571428577</v>
-      </c>
-      <c r="H13" s="84">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="H13" s="39">
         <f t="shared" si="1"/>
-        <v>0.38461538461538458</v>
-      </c>
-      <c r="I13" s="84">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="84">
+        <v>0.29069767441860472</v>
+      </c>
+      <c r="J13" s="56">
         <f t="shared" si="1"/>
-        <v>0.22222222222222232</v>
-      </c>
-      <c r="K13" s="86">
+        <v>6.3063063063063085E-2</v>
+      </c>
+      <c r="K13" s="56">
         <f>SUM(G13:J13)/4</f>
-        <v>0.33563797313797317</v>
-      </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="114" t="s">
+        <v>0.27286047422548942</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="41"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="42">
+        <f>B12/B10</f>
+        <v>0.11908477648006444</v>
+      </c>
+      <c r="C14" s="42">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>1.7485561049805597E-2</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="2"/>
+        <v>-2.8189750058247434E-2</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="2"/>
+        <v>-6.4315599746688819E-3</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>4.7767393561786088E-2</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>4.9792531120331947E-2</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>5.8663028649386086E-2</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="2"/>
+        <v>6.4385150812064959E-2</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="2"/>
+        <v>6.002034587995931E-2</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="100">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B15" s="52">
         <v>19575667</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C15" s="52">
         <v>16230486</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D15" s="52">
         <v>-38069000</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E15" s="52">
         <v>-127997000</v>
       </c>
-      <c r="F14" s="81">
-        <v>35000000</v>
-      </c>
-      <c r="G14" s="80">
-        <v>90000000</v>
-      </c>
-      <c r="H14" s="80">
-        <v>96000000</v>
-      </c>
-      <c r="I14" s="80">
-        <v>97000000</v>
-      </c>
-      <c r="J14" s="80">
-        <v>220000000</v>
-      </c>
-      <c r="K14" s="82" t="s">
+      <c r="F15" s="57">
+        <v>40000000</v>
+      </c>
+      <c r="G15" s="52">
+        <v>55000000</v>
+      </c>
+      <c r="H15" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="I15" s="52">
+        <v>155000000</v>
+      </c>
+      <c r="J15" s="53">
+        <v>305000000</v>
+      </c>
+      <c r="K15" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="87">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" s="101" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.17088464980529139</v>
       </c>
-      <c r="D15" s="84">
-        <f t="shared" si="2"/>
+      <c r="D16" s="39">
+        <f t="shared" si="3"/>
         <v>-3.3455243422778591</v>
       </c>
-      <c r="E15" s="84">
-        <f t="shared" si="2"/>
+      <c r="E16" s="39">
+        <f t="shared" si="3"/>
         <v>2.3622369907273635</v>
       </c>
-      <c r="F15" s="85">
-        <f t="shared" si="2"/>
-        <v>-1.2734439088416134</v>
-      </c>
-      <c r="G15" s="84">
-        <f t="shared" si="2"/>
-        <v>1.5714285714285716</v>
-      </c>
-      <c r="H15" s="84">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="I15" s="84">
-        <f t="shared" si="2"/>
-        <v>1.0416666666666741E-2</v>
-      </c>
-      <c r="J15" s="84">
-        <f t="shared" si="2"/>
-        <v>1.268041237113402</v>
-      </c>
-      <c r="K15" s="86">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.32862184660673871</v>
-      </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="O15" s="91" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.206</v>
-      </c>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="F16" s="40">
+        <f t="shared" si="3"/>
+        <v>-1.3125073243904155</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J16" s="56">
+        <f t="shared" si="3"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="K16" s="56">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.27968328585505475</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="O16" s="100">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="42">
+        <f>B15/B10</f>
+        <v>8.2123720465834341E-2</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>4.9571904597557212E-2</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="4"/>
+        <v>-7.6462814034016502E-2</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="4"/>
+        <v>-0.17320016454401282</v>
+      </c>
+      <c r="F17" s="42">
+        <f t="shared" si="4"/>
+        <v>4.1536863966770511E-2</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>4.5643153526970952E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="4"/>
+        <v>6.8212824010914053E-2</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="4"/>
+        <v>8.9907192575406039E-2</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.15513733468972532</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="103">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.13263962000000001</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B18" s="61">
         <v>0.1804524265213904</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C18" s="61">
         <v>4.6754191674507492E-2</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D18" s="61">
         <v>-0.2346024373203284</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E18" s="61">
         <v>-2.2327508881424857E-3</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="87">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="O17" s="98">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13017774000000001</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="114" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="116" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2021</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="57" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="104">
         <f>O6+O7</f>
         <v>783142000</v>
       </c>
-      <c r="P19" s="41"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="104">
+        <f>A3</f>
+        <v>5011480243</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="120" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="119" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2021</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="104">
+        <f>O19+O20</f>
+        <v>5794622243</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="117" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="O20" s="100">
-        <f>A3</f>
-        <v>4765047430</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="57" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="O21" s="100">
-        <f>O19+O20</f>
-        <v>5548189430</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="71" t="s">
+      <c r="O22" s="105">
+        <f>(O19/O21)</f>
+        <v>0.13514979357732052</v>
+      </c>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="101">
-        <f>(O19/O21)</f>
-        <v>0.14115271475148605</v>
-      </c>
-      <c r="P22" s="41"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="97" t="s">
+      <c r="O23" s="106">
+        <f>O20/O21</f>
+        <v>0.86485020642267951</v>
+      </c>
+      <c r="P23" s="34"/>
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="102">
-        <f>O20/O21</f>
-        <v>0.85884728524851395</v>
-      </c>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="41"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="108">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11094138012581148</v>
-      </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="41"/>
+        <v>0.11388861853758961</v>
+      </c>
+      <c r="O25" s="110"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+    </row>
+    <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="118"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+    </row>
+    <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+    </row>
+    <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="118"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="118"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="118"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -10313,8 +10544,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:BROS/explorer/revenue_proj" xr:uid="{17A370B3-D3DF-1544-B8D2-DA8334966EC2}"/>

--- a/Consumer/Dutch Bros.xlsx
+++ b/Consumer/Dutch Bros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524C6FD-39B0-A543-A5B7-A5FC4B8BA87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B6A14F-B1B8-6B46-A39B-147457DFCF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1628,6 +1628,9 @@
     <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1658,16 +1661,13 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
@@ -1701,10 +1701,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1724,7 +1726,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1737,6 +1739,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1864,11 +1868,11 @@
     <v>Powered by Refinitiv</v>
     <v>41.439900000000002</v>
     <v>22.664999999999999</v>
-    <v>2.1779999999999999</v>
-    <v>1.5649999999999999</v>
-    <v>5.8548000000000003E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>2.1749999999999998</v>
+    <v>0.11</v>
+    <v>3.993E-3</v>
+    <v>-0.01</v>
+    <v>-3.615E-4</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
     <v>22000</v>
@@ -1876,25 +1880,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
-    <v>28.44</v>
+    <v>27.83</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45262.025207001563</v>
+    <v>45269.030346620311</v>
     <v>0</v>
-    <v>26.85</v>
-    <v>5011480243</v>
+    <v>27.14</v>
+    <v>4899011964</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>27.1</v>
-    <v>689.0951</v>
-    <v>26.73</v>
-    <v>28.295000000000002</v>
-    <v>28.3</v>
+    <v>27.5</v>
+    <v>710.2346</v>
+    <v>27.55</v>
+    <v>27.66</v>
+    <v>27.65</v>
     <v>177115400</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>2371941</v>
-    <v>1403605</v>
+    <v>781038</v>
+    <v>1513178</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2059,9 +2063,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8745,7 +8749,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8753,48 +8757,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-    </row>
-    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5011480243</v>
+        <v>4899011964</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>192</v>
@@ -8814,15 +8818,15 @@
         <v>194</v>
       </c>
       <c r="G3" s="69">
-        <f>AVERAGE(Financials!E129:J129)</f>
-        <v>2.7381752694923562E-2</v>
+        <f>AVERAGE(Financials!B129:J129)</f>
+        <v>2.5632082859552159E-2</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="70">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3517041946.9146743</v>
+        <v>3476304807.0668588</v>
       </c>
       <c r="J3" s="71" t="s">
         <v>196</v>
@@ -8835,10 +8839,10 @@
         <v>203</v>
       </c>
       <c r="M3" s="34"/>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="114"/>
+      <c r="O3" s="115"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -8865,30 +8869,30 @@
       </c>
       <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
-        <v>201364050.40631232</v>
+        <v>199814583.04251364</v>
       </c>
       <c r="H4" s="76" t="s">
         <v>201</v>
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2482158968.2725301</v>
+        <v>2447426177.4465508</v>
       </c>
       <c r="J4" s="76" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.8548000000000003E-2</v>
+        <v>3.993E-3</v>
       </c>
       <c r="L4" s="79" t="s">
         <v>241</v>
       </c>
       <c r="M4" s="34"/>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="117"/>
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -8922,14 +8926,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>1722733968.2725301</v>
+        <v>1688001177.4465508</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>28.295000000000002</v>
+        <v>27.66</v>
       </c>
       <c r="L5" s="82" t="s">
         <v>210</v>
@@ -8947,7 +8951,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>5.2040293281412255</v>
+        <v>5.0872398380062309</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>212</v>
@@ -8975,14 +8979,14 @@
       </c>
       <c r="I6" s="78">
         <f>N25</f>
-        <v>0.11388861853758961</v>
+        <v>0.11493026139838933</v>
       </c>
       <c r="J6" s="76" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>8.555320400023728</v>
+        <v>8.4478377490966334</v>
       </c>
       <c r="L6" s="85" t="s">
         <v>216</v>
@@ -9000,14 +9004,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>108.94522267391304</v>
+        <v>106.50026008695652</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="88">
         <f>F15/A3</f>
-        <v>7.9816736893000267E-3</v>
+        <v>8.1649116789133842E-3</v>
       </c>
       <c r="D7" s="87" t="s">
         <v>219</v>
@@ -9034,7 +9038,7 @@
       </c>
       <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>-0.69763843788571389</v>
+        <v>-0.69458287241154615</v>
       </c>
       <c r="L7" s="95" t="s">
         <v>222</v>
@@ -9293,10 +9297,10 @@
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="115" t="s">
+      <c r="N13" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="116"/>
+      <c r="O13" s="117"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9347,7 +9351,7 @@
       </c>
       <c r="O14" s="100">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -9392,7 +9396,7 @@
       </c>
       <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.1779999999999999</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -9493,7 +9497,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13263962000000001</v>
+        <v>0.13427824999999999</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -9521,10 +9525,10 @@
       <c r="K18" s="64"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="115" t="s">
+      <c r="N18" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="117"/>
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9569,17 +9573,17 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>5011480243</v>
+        <v>4899011964</v>
       </c>
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="str" cm="1">
+      <c r="A21" s="118" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2021</v>
@@ -9597,19 +9601,19 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>5794622243</v>
+        <v>5682153964</v>
       </c>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="str" cm="1">
+      <c r="A22" s="120" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -9623,16 +9627,16 @@
       </c>
       <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>0.13514979357732052</v>
+        <v>0.13782484687350863</v>
       </c>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -9646,16 +9650,16 @@
       </c>
       <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.86485020642267951</v>
+        <v>0.8621751531264914</v>
       </c>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -9664,18 +9668,18 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
-      <c r="N24" s="107" t="s">
+      <c r="N24" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="108"/>
+      <c r="O24" s="109"/>
       <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -9684,19 +9688,19 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="109">
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11388861853758961</v>
-      </c>
-      <c r="O25" s="110"/>
+        <v>0.11493026139838933</v>
+      </c>
+      <c r="O25" s="111"/>
       <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -9710,11 +9714,11 @@
       <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -9728,11 +9732,11 @@
       <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -9746,11 +9750,11 @@
       <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
@@ -9764,11 +9768,11 @@
       <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -9782,11 +9786,11 @@
       <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="118"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
@@ -9800,11 +9804,11 @@
       <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="118"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
@@ -9818,11 +9822,11 @@
       <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="118"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
@@ -9836,11 +9840,11 @@
       <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="118"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
@@ -9854,11 +9858,11 @@
       <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="118"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
